--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6855" tabRatio="970" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6855" tabRatio="970" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="837">
   <si>
     <t>EF实体名</t>
   </si>
@@ -1709,18 +1709,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>位数(0全位，1个位 2 十3百，4千，5万)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>出现个数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>热度值，保留两位小数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2725,10 +2717,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>T_111_19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>T-104_YY</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2861,15 +2849,74 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>热度率的商</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>十排序1单1，2单2 3单3,4单4，5单5 ;11双1，12双2，13双3，14双4，15双5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>本位单双遗失排序序号1开始1单1，2单2 3单3,4单4，5单5 ;11双1，12双2，13双3，14双4，15双5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_111_YY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位数(1个位 2 十3百，4千，5万  6全位)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>段(5为5期，10为10期，15为期 20为20期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>段(5为5期，10为10期，15为期 20为20期）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热度率的分母</t>
+  </si>
+  <si>
+    <t>热度率的分母</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热度率，保留两位小数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小持续次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单双的持续次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大（1出现 0未出）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小（1出现 0未出）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单（1出现 0未出）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双（1出现 0未出）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3436,7 +3483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3785,9 +3832,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3802,9 +3846,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -3851,6 +3892,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3878,11 +3922,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4242,30 +4286,30 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -4527,45 +4571,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>788</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="137" t="s">
+        <v>821</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -4598,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -4620,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -4640,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -4655,12 +4700,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -4674,138 +4719,174 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="B10" s="123">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="E10" s="124"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127">
         <v>1</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>785</v>
+      <c r="I10" s="128" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="B11" s="123">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="23" t="s">
-        <v>790</v>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="128" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="123"/>
+      <c r="C12" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="24" t="s">
-        <v>791</v>
+      <c r="E12" s="129"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="130" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23" t="s">
-        <v>786</v>
+      <c r="E13" s="124"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="23" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="23" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
@@ -4917,32 +4998,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>789</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="137" t="s">
+        <v>786</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -4975,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -4997,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -5017,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -5037,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -5051,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -5059,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -5073,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -5081,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -5093,7 +5174,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -5101,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>89</v>
@@ -5113,7 +5194,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -5121,7 +5202,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>13</v>
@@ -5133,7 +5214,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -5153,30 +5234,30 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="23" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119" t="s">
-        <v>805</v>
+      <c r="B15" s="122"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="124"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
@@ -5318,32 +5399,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>673</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="137" t="s">
+        <v>671</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -5376,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>66</v>
@@ -5398,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -5418,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -5452,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -5472,7 +5553,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="23" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -5492,7 +5573,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -5512,13 +5593,13 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>13</v>
@@ -5530,7 +5611,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -5688,7 +5769,7 @@
   <dimension ref="A1:AJ122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5707,34 +5788,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="144" t="s">
-        <v>675</v>
-      </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="F2" s="143" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
-        <v>676</v>
-      </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
+        <v>674</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -5949,7 +6030,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="58" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
@@ -5969,7 +6050,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="57" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
@@ -6023,10 +6104,10 @@
       <c r="F16" s="68">
         <v>0</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134" t="s">
-        <v>559</v>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132" t="s">
+        <v>557</v>
       </c>
       <c r="J16" s="86"/>
       <c r="K16" s="86"/>
@@ -6070,10 +6151,10 @@
       <c r="F17" s="68">
         <v>0</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="135" t="s">
-        <v>560</v>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="133" t="s">
+        <v>558</v>
       </c>
       <c r="J17" s="86"/>
       <c r="K17" s="86"/>
@@ -6117,10 +6198,10 @@
       <c r="F18" s="68">
         <v>0</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="135" t="s">
-        <v>561</v>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="133" t="s">
+        <v>559</v>
       </c>
       <c r="J18" s="86"/>
       <c r="K18" s="86"/>
@@ -6160,14 +6241,14 @@
       <c r="D19" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="68">
         <v>0</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="135" t="s">
-        <v>562</v>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="133" t="s">
+        <v>560</v>
       </c>
       <c r="J19" s="86"/>
       <c r="K19" s="86"/>
@@ -6211,10 +6292,10 @@
       <c r="F20" s="68">
         <v>0</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="135" t="s">
-        <v>563</v>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="133" t="s">
+        <v>561</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -6258,10 +6339,10 @@
       <c r="F21" s="68">
         <v>0</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="135" t="s">
-        <v>564</v>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="133" t="s">
+        <v>562</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
@@ -6305,10 +6386,10 @@
       <c r="F22" s="68">
         <v>0</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="135" t="s">
-        <v>565</v>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="133" t="s">
+        <v>563</v>
       </c>
       <c r="J22" s="86"/>
       <c r="K22" s="86"/>
@@ -6344,10 +6425,10 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
       <c r="F23" s="68"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="70" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>
@@ -6383,8 +6464,8 @@
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
       <c r="F24" s="68"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="70"/>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
@@ -6420,10 +6501,10 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="68"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="70" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J25" s="86"/>
       <c r="K25" s="86"/>
@@ -6459,10 +6540,10 @@
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
       <c r="F26" s="68"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="70" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="J26" s="86"/>
       <c r="K26" s="86"/>
@@ -6498,10 +6579,10 @@
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="68"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="70" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J27" s="86"/>
       <c r="K27" s="86"/>
@@ -6537,10 +6618,10 @@
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="68"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="135" t="s">
-        <v>562</v>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="133" t="s">
+        <v>560</v>
       </c>
       <c r="J28" s="86"/>
       <c r="K28" s="86"/>
@@ -6576,10 +6657,10 @@
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="68"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="135" t="s">
-        <v>563</v>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="133" t="s">
+        <v>561</v>
       </c>
       <c r="J29" s="86"/>
       <c r="K29" s="86"/>
@@ -6615,10 +6696,10 @@
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
       <c r="F30" s="68"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="135" t="s">
-        <v>564</v>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="133" t="s">
+        <v>562</v>
       </c>
       <c r="J30" s="86"/>
       <c r="K30" s="86"/>
@@ -6654,10 +6735,10 @@
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="68"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="135" t="s">
-        <v>565</v>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="133" t="s">
+        <v>563</v>
       </c>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
@@ -6693,10 +6774,10 @@
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
       <c r="F32" s="68"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
       <c r="I32" s="70" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J32" s="86"/>
       <c r="K32" s="86"/>
@@ -6732,8 +6813,8 @@
       <c r="D33" s="66"/>
       <c r="E33" s="66"/>
       <c r="F33" s="68"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
       <c r="I33" s="70"/>
       <c r="J33" s="86"/>
       <c r="K33" s="86"/>
@@ -6769,8 +6850,8 @@
       <c r="D34" s="66"/>
       <c r="E34" s="66"/>
       <c r="F34" s="68"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="70"/>
       <c r="J34" s="86"/>
       <c r="K34" s="86"/>
@@ -6806,8 +6887,8 @@
       <c r="D35" s="66"/>
       <c r="E35" s="66"/>
       <c r="F35" s="68"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="70"/>
       <c r="J35" s="86"/>
       <c r="K35" s="86"/>
@@ -6843,8 +6924,8 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="70"/>
       <c r="J36" s="86"/>
       <c r="K36" s="86"/>
@@ -6880,8 +6961,8 @@
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="68"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="70"/>
       <c r="J37" s="86"/>
       <c r="K37" s="86"/>
@@ -6925,8 +7006,8 @@
       <c r="F38" s="68">
         <v>0</v>
       </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
       <c r="I38" s="70" t="s">
         <v>434</v>
       </c>
@@ -6972,8 +7053,8 @@
       <c r="F39" s="68">
         <v>0</v>
       </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
       <c r="I39" s="70" t="s">
         <v>436</v>
       </c>
@@ -7019,8 +7100,8 @@
       <c r="F40" s="68">
         <v>0</v>
       </c>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="70" t="s">
         <v>435</v>
       </c>
@@ -7066,8 +7147,8 @@
       <c r="F41" s="68">
         <v>0</v>
       </c>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
       <c r="I41" s="70" t="s">
         <v>432</v>
       </c>
@@ -7162,8 +7243,8 @@
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
-      <c r="I43" s="134" t="s">
-        <v>584</v>
+      <c r="I43" s="132" t="s">
+        <v>582</v>
       </c>
       <c r="J43" s="86"/>
       <c r="K43" s="86"/>
@@ -7272,7 +7353,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D46" s="66" t="s">
         <v>120</v>
@@ -7284,7 +7365,7 @@
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
       <c r="I46" s="93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J46" s="86"/>
       <c r="K46" s="86"/>
@@ -7331,7 +7412,7 @@
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
       <c r="I47" s="93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J47" s="86"/>
       <c r="K47" s="86"/>
@@ -7378,7 +7459,7 @@
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="93" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J48" s="86"/>
       <c r="K48" s="86"/>
@@ -7425,7 +7506,7 @@
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
       <c r="I49" s="93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J49" s="86"/>
       <c r="K49" s="86"/>
@@ -7497,7 +7578,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D51" s="80" t="s">
         <v>234</v>
@@ -7508,7 +7589,7 @@
       </c>
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
-      <c r="I51" s="134" t="s">
+      <c r="I51" s="132" t="s">
         <v>504</v>
       </c>
       <c r="J51" s="86"/>
@@ -7544,7 +7625,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D52" s="80" t="s">
         <v>235</v>
@@ -7555,7 +7636,7 @@
       </c>
       <c r="G52" s="83"/>
       <c r="H52" s="83"/>
-      <c r="I52" s="134" t="s">
+      <c r="I52" s="132" t="s">
         <v>505</v>
       </c>
       <c r="J52" s="86"/>
@@ -7628,7 +7709,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D54" s="73" t="s">
         <v>124</v>
@@ -7640,7 +7721,7 @@
       <c r="G54" s="76"/>
       <c r="H54" s="76"/>
       <c r="I54" s="77" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J54" s="86"/>
       <c r="K54" s="86"/>
@@ -7687,7 +7768,7 @@
       <c r="G55" s="76"/>
       <c r="H55" s="76"/>
       <c r="I55" s="77" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J55" s="86"/>
       <c r="K55" s="86"/>
@@ -7734,7 +7815,7 @@
       <c r="G56" s="76"/>
       <c r="H56" s="76"/>
       <c r="I56" s="77" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J56" s="86"/>
       <c r="K56" s="86"/>
@@ -7781,7 +7862,7 @@
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
       <c r="I57" s="77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J57" s="86"/>
       <c r="K57" s="86"/>
@@ -7828,7 +7909,7 @@
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
       <c r="I58" s="77" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J58" s="86"/>
       <c r="K58" s="86"/>
@@ -7875,7 +7956,7 @@
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
       <c r="I59" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J59" s="86"/>
       <c r="K59" s="86"/>
@@ -7922,7 +8003,7 @@
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
       <c r="I60" s="77" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J60" s="86"/>
       <c r="K60" s="86"/>
@@ -7969,7 +8050,7 @@
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
       <c r="I61" s="77" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J61" s="86"/>
       <c r="K61" s="86"/>
@@ -8041,7 +8122,7 @@
         <v>35</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D63" s="73" t="s">
         <v>140</v>
@@ -8094,7 +8175,7 @@
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
       <c r="I64" s="77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J64" s="86"/>
       <c r="K64" s="86"/>
@@ -8141,7 +8222,7 @@
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
       <c r="I65" s="77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J65" s="86"/>
       <c r="K65" s="86"/>
@@ -8188,7 +8269,7 @@
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="77" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J66" s="86"/>
       <c r="K66" s="86"/>
@@ -8258,7 +8339,7 @@
     <row r="68" spans="2:36" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="99"/>
       <c r="C68" s="72" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D68" s="73" t="s">
         <v>13</v>
@@ -8270,7 +8351,7 @@
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
       <c r="I68" s="107" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J68" s="86"/>
       <c r="K68" s="86"/>
@@ -8364,7 +8445,7 @@
       <c r="G70" s="76"/>
       <c r="H70" s="76"/>
       <c r="I70" s="77" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J70" s="86"/>
       <c r="K70" s="86"/>
@@ -8411,7 +8492,7 @@
       <c r="G71" s="76"/>
       <c r="H71" s="76"/>
       <c r="I71" s="77" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J71" s="86"/>
       <c r="K71" s="86"/>
@@ -8456,7 +8537,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D73" s="73" t="s">
         <v>234</v>
@@ -8578,7 +8659,7 @@
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
       <c r="I79" s="107" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="2:36" x14ac:dyDescent="0.15">
@@ -8808,7 +8889,7 @@
       <c r="G92" s="76"/>
       <c r="H92" s="76"/>
       <c r="I92" s="78" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
@@ -8828,7 +8909,7 @@
       <c r="G93" s="76"/>
       <c r="H93" s="76"/>
       <c r="I93" s="78" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
@@ -8848,7 +8929,7 @@
       <c r="G94" s="76"/>
       <c r="H94" s="76"/>
       <c r="I94" s="78" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
@@ -8868,7 +8949,7 @@
       <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="78" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
@@ -9024,7 +9105,7 @@
       <c r="G104" s="76"/>
       <c r="H104" s="76"/>
       <c r="I104" s="77" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
@@ -9044,7 +9125,7 @@
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="78" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
@@ -9084,7 +9165,7 @@
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="78" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
@@ -9104,7 +9185,7 @@
       <c r="G108" s="76"/>
       <c r="H108" s="76"/>
       <c r="I108" s="78" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
@@ -9124,7 +9205,7 @@
       <c r="G109" s="76"/>
       <c r="H109" s="76"/>
       <c r="I109" s="78" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
@@ -9144,7 +9225,7 @@
       <c r="G110" s="76"/>
       <c r="H110" s="76"/>
       <c r="I110" s="78" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
@@ -9305,7 +9386,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9318,36 +9399,36 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1" t="s">
         <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="144" t="s">
-        <v>651</v>
-      </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
+      <c r="F2" s="143" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
     </row>
     <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
-        <v>677</v>
-      </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -9402,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>66</v>
@@ -9422,7 +9503,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
@@ -9437,7 +9518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -9456,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>527</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
@@ -9500,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>687</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
@@ -9520,7 +9601,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
@@ -9540,9 +9621,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="57" t="s">
-        <v>821</v>
-      </c>
-      <c r="J12" s="148"/>
+        <v>818</v>
+      </c>
+      <c r="J12" s="136"/>
       <c r="K12" s="85"/>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
@@ -9554,7 +9635,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>13</v>
@@ -9566,7 +9647,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="32"/>
       <c r="I13" s="63" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
@@ -9579,21 +9660,13 @@
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="118">
-        <v>0</v>
-      </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="147" t="s">
-        <v>690</v>
-      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="146"/>
       <c r="J14" s="85"/>
       <c r="K14" s="85"/>
       <c r="L14" s="85"/>
@@ -9605,21 +9678,13 @@
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118">
-        <v>0</v>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119" t="s">
-        <v>691</v>
-      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -9738,10 +9803,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I27"/>
+  <dimension ref="B3:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9755,34 +9820,34 @@
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="139"/>
+      <c r="B4" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="138"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="138" t="s">
-        <v>692</v>
-      </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="137" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="138" t="s">
-        <v>772</v>
-      </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="137" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -9815,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>66</v>
@@ -9837,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>66</v>
@@ -9891,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -9913,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>687</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9935,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -9955,7 +10020,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="4"/>
       <c r="I13" s="23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9966,7 +10031,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10">
@@ -9975,73 +10040,61 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="124">
-        <v>9</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="122" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30">
+        <v>10</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="120">
-        <v>0</v>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="124">
-        <v>10</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="120">
-        <v>0</v>
-      </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="121" t="s">
-        <v>690</v>
-      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="147" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="30">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="124">
-        <v>11</v>
-      </c>
-      <c r="C17" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118">
-        <v>0</v>
-      </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119" t="s">
-        <v>691</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10051,7 +10104,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -10091,11 +10144,11 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -10118,25 +10171,15 @@
       <c r="H25" s="15"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="26"/>
+    <row r="26" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10147,10 +10190,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G25">
       <formula1>"NVL,否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D25">
       <formula1>"固定长度ANSI字符,固定长度Unicode字符,不固定长度ANSI字符,不固定长度Unicode字符,最大长度ANSI字符,最大长度Unicode字符,数字(-32768~32767),数字(-2147483648~2147483647),数字(-9223372036854775808 ~ 9223372036854775807),数字(含小数),日期时间"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10164,7 +10207,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C14" sqref="C14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10178,34 +10221,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="144" t="s">
-        <v>652</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="F3" s="143" t="s">
+        <v>650</v>
+      </c>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138" t="s">
-        <v>693</v>
-      </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -10238,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -10260,7 +10303,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -10314,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -10336,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -10358,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -10378,7 +10421,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -10398,67 +10441,67 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="120">
-        <v>0</v>
-      </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119" t="s">
-        <v>689</v>
+      <c r="E14" s="116"/>
+      <c r="F14" s="119">
+        <v>0</v>
+      </c>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="120">
-        <v>0</v>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="121" t="s">
-        <v>690</v>
+      <c r="E15" s="116"/>
+      <c r="F15" s="119">
+        <v>0</v>
+      </c>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="120" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="120">
-        <v>0</v>
-      </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119" t="s">
-        <v>691</v>
+      <c r="E16" s="116"/>
+      <c r="F16" s="119">
+        <v>0</v>
+      </c>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -10602,34 +10645,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="144" t="s">
-        <v>674</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="143" t="s">
+        <v>672</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138" t="s">
-        <v>694</v>
-      </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137" t="s">
+        <v>692</v>
+      </c>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -10662,10 +10705,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7">
@@ -10676,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
@@ -10684,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
@@ -10698,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -10706,7 +10749,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -10720,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -10742,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -10762,7 +10805,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -10782,7 +10825,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -10802,7 +10845,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -10822,7 +10865,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -10830,7 +10873,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>16</v>
@@ -10846,7 +10889,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>16</v>
@@ -10862,7 +10905,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -10874,7 +10917,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -10882,7 +10925,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>89</v>
@@ -10894,7 +10937,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -10902,7 +10945,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>92</v>
@@ -10914,7 +10957,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -10922,7 +10965,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>95</v>
@@ -10934,7 +10977,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -10942,7 +10985,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>98</v>
@@ -10954,7 +10997,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -11043,7 +11086,7 @@
   <dimension ref="B1:P112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11059,34 +11102,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="144" t="s">
-        <v>533</v>
-      </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
+      <c r="F2" s="143" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
-        <v>770</v>
-      </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
+        <v>768</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -11119,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>66</v>
@@ -11133,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J5" s="34"/>
     </row>
@@ -11142,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>66</v>
@@ -11154,7 +11197,7 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="42" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
@@ -11162,7 +11205,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
@@ -11182,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -11196,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -11226,7 +11269,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -11246,7 +11289,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -11266,7 +11309,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -11286,7 +11329,7 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -11306,7 +11349,7 @@
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="113" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
@@ -11326,7 +11369,7 @@
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="113" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
@@ -11346,7 +11389,7 @@
       </c>
       <c r="H16" s="112"/>
       <c r="I16" s="113" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="N16" s="34"/>
     </row>
@@ -11367,7 +11410,7 @@
       </c>
       <c r="H17" s="112"/>
       <c r="I17" s="113" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N17" s="34"/>
     </row>
@@ -11388,7 +11431,7 @@
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="113" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N18" s="34"/>
     </row>
@@ -11409,7 +11452,7 @@
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="113" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N19" s="34"/>
     </row>
@@ -11430,7 +11473,7 @@
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="113" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N20" s="34"/>
     </row>
@@ -11451,7 +11494,7 @@
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="113" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N21" s="34"/>
     </row>
@@ -11472,7 +11515,7 @@
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="113" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N22" s="34"/>
     </row>
@@ -11493,7 +11536,7 @@
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="113" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N23" s="34"/>
     </row>
@@ -11514,7 +11557,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N24" s="34"/>
     </row>
@@ -11529,7 +11572,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N25" s="34"/>
     </row>
@@ -11550,7 +11593,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N26" s="34"/>
     </row>
@@ -11571,7 +11614,7 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N27" s="34"/>
     </row>
@@ -11592,7 +11635,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="23" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="N28" s="34"/>
     </row>
@@ -11613,7 +11656,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N29" s="34"/>
     </row>
@@ -11634,7 +11677,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N30" s="34"/>
     </row>
@@ -11655,7 +11698,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N31" s="34"/>
     </row>
@@ -11676,7 +11719,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="23" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N32" s="34"/>
     </row>
@@ -11697,7 +11740,7 @@
       </c>
       <c r="H33" s="112"/>
       <c r="I33" s="113" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N33" s="34"/>
     </row>
@@ -11718,7 +11761,7 @@
       </c>
       <c r="H34" s="112"/>
       <c r="I34" s="113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N34" s="34"/>
     </row>
@@ -11739,7 +11782,7 @@
       </c>
       <c r="H35" s="112"/>
       <c r="I35" s="113" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N35" s="34"/>
     </row>
@@ -11760,7 +11803,7 @@
       </c>
       <c r="H36" s="112"/>
       <c r="I36" s="113" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N36" s="34"/>
     </row>
@@ -11781,7 +11824,7 @@
       </c>
       <c r="H37" s="112"/>
       <c r="I37" s="113" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N37" s="34"/>
     </row>
@@ -11796,7 +11839,7 @@
       <c r="G38" s="112"/>
       <c r="H38" s="112"/>
       <c r="I38" s="113" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N38" s="34"/>
     </row>
@@ -11817,7 +11860,7 @@
       </c>
       <c r="H39" s="112"/>
       <c r="I39" s="113" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N39" s="34"/>
     </row>
@@ -11838,7 +11881,7 @@
       </c>
       <c r="H40" s="112"/>
       <c r="I40" s="113" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="N40" s="34"/>
     </row>
@@ -11859,7 +11902,7 @@
       </c>
       <c r="H41" s="112"/>
       <c r="I41" s="113" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N41" s="34"/>
     </row>
@@ -11880,7 +11923,7 @@
       </c>
       <c r="H42" s="112"/>
       <c r="I42" s="113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N42" s="34"/>
     </row>
@@ -11895,7 +11938,7 @@
       <c r="G43" s="112"/>
       <c r="H43" s="112"/>
       <c r="I43" s="113" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="N43" s="34"/>
     </row>
@@ -11916,7 +11959,7 @@
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="113" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N44" s="34"/>
     </row>
@@ -11937,7 +11980,7 @@
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="42" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N45" s="34"/>
     </row>
@@ -11958,7 +12001,7 @@
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="42" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N46" s="34"/>
     </row>
@@ -11979,7 +12022,7 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="42" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N47" s="34"/>
     </row>
@@ -12000,7 +12043,7 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="42" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N48" s="34"/>
     </row>
@@ -12021,7 +12064,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="42" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N49" s="34"/>
     </row>
@@ -12042,7 +12085,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N50" s="34"/>
     </row>
@@ -12063,7 +12106,7 @@
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N51" s="34"/>
     </row>
@@ -12084,7 +12127,7 @@
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N52" s="34"/>
     </row>
@@ -12119,7 +12162,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D55" s="110"/>
       <c r="E55" s="111"/>
@@ -12127,7 +12170,7 @@
       <c r="G55" s="112"/>
       <c r="H55" s="112"/>
       <c r="I55" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N55" s="34"/>
     </row>
@@ -12136,7 +12179,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D56" s="110"/>
       <c r="E56" s="111"/>
@@ -12144,7 +12187,7 @@
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
       <c r="I56" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N56" s="34"/>
     </row>
@@ -12153,7 +12196,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D57" s="110"/>
       <c r="E57" s="111"/>
@@ -12161,7 +12204,7 @@
       <c r="G57" s="112"/>
       <c r="H57" s="112"/>
       <c r="I57" s="115" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N57" s="34"/>
     </row>
@@ -12170,7 +12213,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D58" s="110"/>
       <c r="E58" s="111"/>
@@ -12178,7 +12221,7 @@
       <c r="G58" s="112"/>
       <c r="H58" s="112"/>
       <c r="I58" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N58" s="34"/>
     </row>
@@ -12187,7 +12230,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D59" s="110"/>
       <c r="E59" s="111"/>
@@ -12195,14 +12238,14 @@
       <c r="G59" s="112"/>
       <c r="H59" s="112"/>
       <c r="I59" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="114"/>
       <c r="C60" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D60" s="110"/>
       <c r="E60" s="111"/>
@@ -12210,7 +12253,7 @@
       <c r="G60" s="112"/>
       <c r="H60" s="112"/>
       <c r="I60" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N60" s="34"/>
     </row>
@@ -12219,7 +12262,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D61" s="110"/>
       <c r="E61" s="111"/>
@@ -12227,7 +12270,7 @@
       <c r="G61" s="112"/>
       <c r="H61" s="112"/>
       <c r="I61" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N61" s="34"/>
     </row>
@@ -12236,7 +12279,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D62" s="110"/>
       <c r="E62" s="111"/>
@@ -12244,14 +12287,14 @@
       <c r="G62" s="112"/>
       <c r="H62" s="112"/>
       <c r="I62" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N62" s="34"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="114"/>
       <c r="C63" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D63" s="110"/>
       <c r="E63" s="111"/>
@@ -12259,7 +12302,7 @@
       <c r="G63" s="112"/>
       <c r="H63" s="112"/>
       <c r="I63" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N63" s="34"/>
     </row>
@@ -12268,7 +12311,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D64" s="110"/>
       <c r="E64" s="111"/>
@@ -12276,7 +12319,7 @@
       <c r="G64" s="112"/>
       <c r="H64" s="112"/>
       <c r="I64" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N64" s="34"/>
     </row>
@@ -12285,7 +12328,7 @@
         <v>51</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D65" s="110"/>
       <c r="E65" s="111"/>
@@ -12293,7 +12336,7 @@
       <c r="G65" s="112"/>
       <c r="H65" s="112"/>
       <c r="I65" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N65" s="34"/>
     </row>
@@ -12302,7 +12345,7 @@
         <v>52</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D66" s="110"/>
       <c r="E66" s="111"/>
@@ -12310,7 +12353,7 @@
       <c r="G66" s="112"/>
       <c r="H66" s="112"/>
       <c r="I66" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N66" s="34"/>
     </row>
@@ -12319,7 +12362,7 @@
         <v>53</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D67" s="110"/>
       <c r="E67" s="111"/>
@@ -12327,7 +12370,7 @@
       <c r="G67" s="112"/>
       <c r="H67" s="112"/>
       <c r="I67" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N67" s="34"/>
     </row>
@@ -12336,7 +12379,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D68" s="110"/>
       <c r="E68" s="111"/>
@@ -12344,7 +12387,7 @@
       <c r="G68" s="112"/>
       <c r="H68" s="112"/>
       <c r="I68" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N68" s="34"/>
     </row>
@@ -12353,7 +12396,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D69" s="110"/>
       <c r="E69" s="111"/>
@@ -12361,7 +12404,7 @@
       <c r="G69" s="112"/>
       <c r="H69" s="112"/>
       <c r="I69" s="115" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -12371,7 +12414,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D70" s="110"/>
       <c r="E70" s="111"/>
@@ -12379,7 +12422,7 @@
       <c r="G70" s="112"/>
       <c r="H70" s="112"/>
       <c r="I70" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -12389,7 +12432,7 @@
         <v>57</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D71" s="110"/>
       <c r="E71" s="111"/>
@@ -12397,7 +12440,7 @@
       <c r="G71" s="112"/>
       <c r="H71" s="112"/>
       <c r="I71" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
@@ -12408,7 +12451,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D72" s="110"/>
       <c r="E72" s="111"/>
@@ -12416,7 +12459,7 @@
       <c r="G72" s="112"/>
       <c r="H72" s="112"/>
       <c r="I72" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
@@ -12426,7 +12469,7 @@
         <v>59</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D73" s="110"/>
       <c r="E73" s="111"/>
@@ -12434,7 +12477,7 @@
       <c r="G73" s="112"/>
       <c r="H73" s="112"/>
       <c r="I73" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
@@ -12454,7 +12497,7 @@
       <c r="G74" s="112"/>
       <c r="H74" s="112"/>
       <c r="I74" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
@@ -12472,7 +12515,7 @@
       <c r="G75" s="112"/>
       <c r="H75" s="112"/>
       <c r="I75" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
@@ -12482,7 +12525,7 @@
         <v>62</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D76" s="110"/>
       <c r="E76" s="111"/>
@@ -12490,7 +12533,7 @@
       <c r="G76" s="112"/>
       <c r="H76" s="112"/>
       <c r="I76" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
@@ -12500,7 +12543,7 @@
         <v>63</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D77" s="110"/>
       <c r="E77" s="111"/>
@@ -12508,7 +12551,7 @@
       <c r="G77" s="112"/>
       <c r="H77" s="112"/>
       <c r="I77" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
@@ -12518,7 +12561,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D78" s="110"/>
       <c r="E78" s="111"/>
@@ -12526,7 +12569,7 @@
       <c r="G78" s="112"/>
       <c r="H78" s="112"/>
       <c r="I78" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
@@ -12536,7 +12579,7 @@
         <v>65</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
@@ -12544,7 +12587,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
@@ -12554,7 +12597,7 @@
         <v>66</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
@@ -12562,7 +12605,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L80" s="34"/>
     </row>
@@ -12571,7 +12614,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
@@ -12579,7 +12622,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
@@ -12587,7 +12630,7 @@
         <v>68</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
@@ -12595,7 +12638,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
@@ -12603,7 +12646,7 @@
         <v>69</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
@@ -12611,7 +12654,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
@@ -12619,7 +12662,7 @@
         <v>70</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
@@ -12627,7 +12670,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
@@ -12635,7 +12678,7 @@
         <v>71</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
@@ -12643,7 +12686,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="115" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -12659,7 +12702,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="115" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
@@ -12675,7 +12718,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="115" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
@@ -13017,34 +13060,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
-        <v>532</v>
-      </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="F2" s="137" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -13115,7 +13158,7 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13157,7 +13200,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -13177,7 +13220,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13197,7 +13240,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13217,7 +13260,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13237,7 +13280,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13257,7 +13300,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13277,7 +13320,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13297,7 +13340,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13317,7 +13360,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13337,7 +13380,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13357,7 +13400,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13377,7 +13420,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13397,7 +13440,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13417,7 +13460,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13437,7 +13480,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13457,7 +13500,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13477,7 +13520,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="42" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13497,7 +13540,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="42" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13517,7 +13560,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13537,7 +13580,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="42" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13557,7 +13600,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13577,7 +13620,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13597,7 +13640,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13617,7 +13660,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13637,7 +13680,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13657,7 +13700,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13677,7 +13720,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="42" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13697,7 +13740,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13717,7 +13760,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="42" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13737,7 +13780,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="42" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13757,7 +13800,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13777,7 +13820,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="42" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -13929,7 +13972,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
@@ -13955,7 +13998,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
@@ -13969,7 +14012,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
@@ -14580,32 +14623,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -14883,34 +14926,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
-        <v>534</v>
-      </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="F2" s="137" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -15203,7 +15246,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -15537,34 +15580,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -16107,34 +16150,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -17725,34 +17768,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -19377,34 +19420,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -21029,34 +21072,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -22681,34 +22724,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -24330,34 +24373,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -24803,32 +24846,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -25103,32 +25146,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>449</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -25756,34 +25799,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -26232,10 +26275,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26249,36 +26292,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -26525,7 +26568,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -26565,7 +26608,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -26577,7 +26620,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -26593,7 +26636,7 @@
     <row r="20" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B20" s="47"/>
       <c r="C20" s="14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -26605,13 +26648,13 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="25" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B21" s="47"/>
       <c r="C21" s="14" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -26623,13 +26666,13 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="25" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B22" s="47"/>
       <c r="C22" s="14" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -26641,13 +26684,13 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="25" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B23" s="47"/>
       <c r="C23" s="14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -26659,13 +26702,13 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="25" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B24" s="47"/>
       <c r="C24" s="14" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -26677,7 +26720,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="25" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -26693,7 +26736,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="47"/>
       <c r="C26" s="14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -26705,7 +26748,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
@@ -26723,7 +26766,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -26741,7 +26784,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="25" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -26759,7 +26802,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="25" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -26777,7 +26820,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="25" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
@@ -26795,18 +26838,58 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="25" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="26"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="47"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="47"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="47"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -26817,10 +26900,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D35">
       <formula1>"固定长度ANSI字符,固定长度Unicode字符,不固定长度ANSI字符,不固定长度Unicode字符,最大长度ANSI字符,最大长度Unicode字符,数字(-32768~32767),数字(-2147483648~2147483647),数字(-9223372036854775808 ~ 9223372036854775807),数字(含小数),日期时间"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G35">
       <formula1>"NVL,否,是"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26833,7 +26916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -26854,36 +26937,36 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
       <c r="D2" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -27282,7 +27365,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>116</v>
@@ -27320,7 +27403,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="9"/>
@@ -27356,7 +27439,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>122</v>
@@ -27414,7 +27497,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>128</v>
@@ -27888,7 +27971,7 @@
       <c r="G57" s="95"/>
       <c r="H57" s="95"/>
       <c r="I57" s="96" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
@@ -28020,7 +28103,7 @@
       <c r="G64" s="95"/>
       <c r="H64" s="95"/>
       <c r="I64" s="96" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -28506,7 +28589,7 @@
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
       <c r="I90" s="96" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
@@ -28574,7 +28657,7 @@
       <c r="G94" s="92"/>
       <c r="H94" s="92"/>
       <c r="I94" s="96" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
@@ -28715,32 +28798,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>672</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="137" t="s">
+        <v>670</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -28773,7 +28856,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -28795,7 +28878,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -28849,149 +28932,149 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="125">
+      <c r="B10" s="123">
         <v>5</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="128">
-        <v>0</v>
-      </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129">
+      <c r="E10" s="124"/>
+      <c r="F10" s="126">
+        <v>0</v>
+      </c>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127">
         <v>1</v>
       </c>
-      <c r="I10" s="130" t="s">
-        <v>776</v>
+      <c r="I10" s="128" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="125">
+      <c r="B11" s="123">
         <v>6</v>
       </c>
-      <c r="C11" s="126" t="s">
-        <v>678</v>
-      </c>
-      <c r="D11" s="127" t="s">
+      <c r="C11" s="124" t="s">
+        <v>676</v>
+      </c>
+      <c r="D11" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="128">
-        <v>0</v>
-      </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="126">
+        <v>0</v>
+      </c>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="123">
+        <v>7</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>677</v>
+      </c>
+      <c r="D12" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="124"/>
+      <c r="F12" s="127">
+        <v>0</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="125">
-        <v>7</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>679</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="129">
-        <v>0</v>
-      </c>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130" t="s">
-        <v>683</v>
-      </c>
-    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="125">
+      <c r="B13" s="123">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="128">
-        <v>0</v>
-      </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="130" t="s">
+      <c r="E13" s="124"/>
+      <c r="F13" s="126">
+        <v>0</v>
+      </c>
+      <c r="G13" s="127"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="128" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="123">
+        <v>9</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="129"/>
+      <c r="F14" s="126">
+        <v>0</v>
+      </c>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="130" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="123">
+        <v>10</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="124"/>
+      <c r="F15" s="126">
+        <v>0</v>
+      </c>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="125">
-        <v>9</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="128">
-        <v>0</v>
-      </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="132" t="s">
+    <row r="16" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="123">
+        <v>11</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="124"/>
+      <c r="F16" s="126">
+        <v>0</v>
+      </c>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128" t="s">
         <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="125">
-        <v>10</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="128">
-        <v>0</v>
-      </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="125">
-        <v>11</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="128">
-        <v>0</v>
-      </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -28999,7 +29082,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -29011,7 +29094,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="23" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -29029,7 +29112,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -29047,7 +29130,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -29065,7 +29148,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -29083,7 +29166,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -29101,7 +29184,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6855" tabRatio="970" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6855" tabRatio="970" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="825">
   <si>
     <t>EF实体名</t>
   </si>
@@ -2199,22 +2199,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>持续期数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>振荡幅度，重复是为0，递增减时为两数的绝对值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续期数&gt;=3期时振幅的平均值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续期数&gt;=3期时振幅的离散值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>C001</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2291,34 +2275,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>C007</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>C006</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>C007</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>C006</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>是否出现 1为出现  0未出</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>是否出现 1为出现  0未出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>没出现时的遗漏值累加</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>没出现时的遗漏值累加</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>没出现的的值累加</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2670,10 +2642,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1重复 2振荡 3 递增 或递减、4 其它（两个重复间）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>重复0为出现，其它值为累积遗失</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2706,27 +2674,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1(大 小) 2(单 双)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现时持续次数</t>
-  </si>
-  <si>
     <t>出现时持续次数</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>T-104_YY</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>大  单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小  双</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>C100</t>
@@ -3009,7 +2962,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3037,12 +2990,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,7 +3430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3847,35 +3794,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4286,30 +4206,30 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -4569,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4585,32 +4505,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137" t="s">
-        <v>821</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="128" t="s">
+        <v>809</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -4643,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -4665,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -4685,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -4705,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -4719,244 +4639,186 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="123">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="124" t="s">
+      <c r="C10" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127">
-        <v>1</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="123">
-        <v>6</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="124" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="23" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="128" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="123"/>
-      <c r="C12" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="124" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="130" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="123"/>
-      <c r="C13" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="124" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="23" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="23" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="23" t="s">
-        <v>835</v>
-      </c>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="23" t="s">
-        <v>836</v>
-      </c>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="23" t="s">
-        <v>831</v>
-      </c>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23" t="s">
-        <v>832</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="26"/>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4967,10 +4829,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21">
       <formula1>"固定长度ANSI字符,固定长度Unicode字符,不固定长度ANSI字符,不固定长度Unicode字符,最大长度ANSI字符,最大长度Unicode字符,数字(-32768~32767),数字(-2147483648~2147483647),数字(-9223372036854775808 ~ 9223372036854775807),数字(含小数),日期时间"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G21">
       <formula1>"NVL,否,是"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4998,32 +4860,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137" t="s">
-        <v>786</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="128" t="s">
+        <v>776</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -5056,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -5078,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -5098,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -5118,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -5132,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -5140,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -5154,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -5162,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -5174,7 +5036,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="23" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -5182,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>89</v>
@@ -5194,7 +5056,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -5202,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>13</v>
@@ -5214,7 +5076,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -5234,11 +5096,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="23" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="122"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116"/>
@@ -5246,11 +5108,11 @@
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="118" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="122"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
       <c r="E16" s="116"/>
@@ -5399,32 +5261,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137" t="s">
-        <v>671</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="128" t="s">
+        <v>667</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -5457,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>66</v>
@@ -5479,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -5499,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -5533,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -5553,7 +5415,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="23" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -5573,7 +5435,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="23" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -5593,13 +5455,13 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="24" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>13</v>
@@ -5611,7 +5473,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="23" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -5788,34 +5650,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>673</v>
-      </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="F2" s="134" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
-        <v>674</v>
-      </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
+        <v>670</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -6030,7 +5892,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="58" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
@@ -6104,9 +5966,9 @@
       <c r="F16" s="68">
         <v>0</v>
       </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132" t="s">
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123" t="s">
         <v>557</v>
       </c>
       <c r="J16" s="86"/>
@@ -6151,9 +6013,9 @@
       <c r="F17" s="68">
         <v>0</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="133" t="s">
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="124" t="s">
         <v>558</v>
       </c>
       <c r="J17" s="86"/>
@@ -6198,9 +6060,9 @@
       <c r="F18" s="68">
         <v>0</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="133" t="s">
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="124" t="s">
         <v>559</v>
       </c>
       <c r="J18" s="86"/>
@@ -6241,13 +6103,13 @@
       <c r="D19" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="68">
         <v>0</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="133" t="s">
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="124" t="s">
         <v>560</v>
       </c>
       <c r="J19" s="86"/>
@@ -6292,9 +6154,9 @@
       <c r="F20" s="68">
         <v>0</v>
       </c>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="133" t="s">
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="124" t="s">
         <v>561</v>
       </c>
       <c r="J20" s="86"/>
@@ -6339,9 +6201,9 @@
       <c r="F21" s="68">
         <v>0</v>
       </c>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="133" t="s">
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="124" t="s">
         <v>562</v>
       </c>
       <c r="J21" s="86"/>
@@ -6386,9 +6248,9 @@
       <c r="F22" s="68">
         <v>0</v>
       </c>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="133" t="s">
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="124" t="s">
         <v>563</v>
       </c>
       <c r="J22" s="86"/>
@@ -6425,10 +6287,10 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
       <c r="F23" s="68"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="70" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>
@@ -6464,8 +6326,8 @@
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
       <c r="F24" s="68"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="70"/>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
@@ -6501,10 +6363,10 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="68"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="70" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="J25" s="86"/>
       <c r="K25" s="86"/>
@@ -6540,10 +6402,10 @@
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
       <c r="F26" s="68"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="70" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="J26" s="86"/>
       <c r="K26" s="86"/>
@@ -6579,10 +6441,10 @@
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="68"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="70" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="J27" s="86"/>
       <c r="K27" s="86"/>
@@ -6618,9 +6480,9 @@
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="68"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="133" t="s">
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="124" t="s">
         <v>560</v>
       </c>
       <c r="J28" s="86"/>
@@ -6657,9 +6519,9 @@
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="68"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="133" t="s">
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="124" t="s">
         <v>561</v>
       </c>
       <c r="J29" s="86"/>
@@ -6696,9 +6558,9 @@
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
       <c r="F30" s="68"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="133" t="s">
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="124" t="s">
         <v>562</v>
       </c>
       <c r="J30" s="86"/>
@@ -6735,9 +6597,9 @@
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="68"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="133" t="s">
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="124" t="s">
         <v>563</v>
       </c>
       <c r="J31" s="86"/>
@@ -6774,10 +6636,10 @@
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
       <c r="F32" s="68"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="70" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="J32" s="86"/>
       <c r="K32" s="86"/>
@@ -6813,8 +6675,8 @@
       <c r="D33" s="66"/>
       <c r="E33" s="66"/>
       <c r="F33" s="68"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
       <c r="I33" s="70"/>
       <c r="J33" s="86"/>
       <c r="K33" s="86"/>
@@ -6850,8 +6712,8 @@
       <c r="D34" s="66"/>
       <c r="E34" s="66"/>
       <c r="F34" s="68"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
       <c r="I34" s="70"/>
       <c r="J34" s="86"/>
       <c r="K34" s="86"/>
@@ -6887,8 +6749,8 @@
       <c r="D35" s="66"/>
       <c r="E35" s="66"/>
       <c r="F35" s="68"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="70"/>
       <c r="J35" s="86"/>
       <c r="K35" s="86"/>
@@ -6924,8 +6786,8 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
       <c r="I36" s="70"/>
       <c r="J36" s="86"/>
       <c r="K36" s="86"/>
@@ -6961,8 +6823,8 @@
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="68"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
       <c r="I37" s="70"/>
       <c r="J37" s="86"/>
       <c r="K37" s="86"/>
@@ -7006,8 +6868,8 @@
       <c r="F38" s="68">
         <v>0</v>
       </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
       <c r="I38" s="70" t="s">
         <v>434</v>
       </c>
@@ -7053,8 +6915,8 @@
       <c r="F39" s="68">
         <v>0</v>
       </c>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="70" t="s">
         <v>436</v>
       </c>
@@ -7100,8 +6962,8 @@
       <c r="F40" s="68">
         <v>0</v>
       </c>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="70" t="s">
         <v>435</v>
       </c>
@@ -7147,8 +7009,8 @@
       <c r="F41" s="68">
         <v>0</v>
       </c>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
       <c r="I41" s="70" t="s">
         <v>432</v>
       </c>
@@ -7243,7 +7105,7 @@
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
-      <c r="I43" s="132" t="s">
+      <c r="I43" s="123" t="s">
         <v>582</v>
       </c>
       <c r="J43" s="86"/>
@@ -7578,7 +7440,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D51" s="80" t="s">
         <v>234</v>
@@ -7589,7 +7451,7 @@
       </c>
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
-      <c r="I51" s="132" t="s">
+      <c r="I51" s="123" t="s">
         <v>504</v>
       </c>
       <c r="J51" s="86"/>
@@ -7625,7 +7487,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D52" s="80" t="s">
         <v>235</v>
@@ -7636,7 +7498,7 @@
       </c>
       <c r="G52" s="83"/>
       <c r="H52" s="83"/>
-      <c r="I52" s="132" t="s">
+      <c r="I52" s="123" t="s">
         <v>505</v>
       </c>
       <c r="J52" s="86"/>
@@ -9385,7 +9247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -9399,36 +9261,36 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1" t="s">
         <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="134" t="s">
         <v>649</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
     </row>
     <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
-        <v>675</v>
-      </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -9537,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
@@ -9581,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
@@ -9601,7 +9463,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="23" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
@@ -9621,9 +9483,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="57" t="s">
-        <v>818</v>
-      </c>
-      <c r="J12" s="136"/>
+        <v>806</v>
+      </c>
+      <c r="J12" s="127"/>
       <c r="K12" s="85"/>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
@@ -9635,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>13</v>
@@ -9647,7 +9509,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="32"/>
       <c r="I13" s="63" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
@@ -9666,7 +9528,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="146"/>
+      <c r="I14" s="137"/>
       <c r="J14" s="85"/>
       <c r="K14" s="85"/>
       <c r="L14" s="85"/>
@@ -9820,34 +9682,34 @@
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="138"/>
+      <c r="B4" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="129"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="137" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="F4" s="128" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="137" t="s">
-        <v>770</v>
-      </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="128" t="s">
+        <v>763</v>
+      </c>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -9978,7 +9840,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10000,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -10040,7 +9902,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="23" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -10048,7 +9910,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -10059,8 +9921,8 @@
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="147" t="s">
-        <v>825</v>
+      <c r="I15" s="138" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -10068,7 +9930,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -10221,34 +10083,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="134" t="s">
         <v>650</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="145"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137" t="s">
-        <v>691</v>
-      </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128" t="s">
+        <v>684</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -10379,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -10401,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -10461,7 +10323,7 @@
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
       <c r="I14" s="118" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -10481,7 +10343,7 @@
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="120" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -10501,7 +10363,7 @@
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
       <c r="I16" s="118" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -10645,34 +10507,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="143" t="s">
-        <v>672</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="134" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137" t="s">
-        <v>692</v>
-      </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128" t="s">
+        <v>685</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -11102,34 +10964,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="134" t="s">
         <v>531</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
-        <v>768</v>
-      </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
+        <v>761</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -11239,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -11269,7 +11131,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -11289,7 +11151,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="23" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -11309,7 +11171,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="23" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -11329,7 +11191,7 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="23" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -11349,7 +11211,7 @@
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="113" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
@@ -11369,7 +11231,7 @@
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="113" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
@@ -11389,7 +11251,7 @@
       </c>
       <c r="H16" s="112"/>
       <c r="I16" s="113" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="N16" s="34"/>
     </row>
@@ -11410,7 +11272,7 @@
       </c>
       <c r="H17" s="112"/>
       <c r="I17" s="113" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="N17" s="34"/>
     </row>
@@ -11431,7 +11293,7 @@
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="113" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="N18" s="34"/>
     </row>
@@ -11452,7 +11314,7 @@
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="113" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="N19" s="34"/>
     </row>
@@ -11473,7 +11335,7 @@
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="113" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="N20" s="34"/>
     </row>
@@ -11494,7 +11356,7 @@
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="113" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="N21" s="34"/>
     </row>
@@ -11515,7 +11377,7 @@
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="113" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="N22" s="34"/>
     </row>
@@ -11536,7 +11398,7 @@
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="113" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="N23" s="34"/>
     </row>
@@ -11557,7 +11419,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="23" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="N24" s="34"/>
     </row>
@@ -11572,7 +11434,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="23" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="N25" s="34"/>
     </row>
@@ -11593,7 +11455,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="23" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="N26" s="34"/>
     </row>
@@ -11614,7 +11476,7 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="23" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="N27" s="34"/>
     </row>
@@ -11635,7 +11497,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="23" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="N28" s="34"/>
     </row>
@@ -11656,7 +11518,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="23" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="N29" s="34"/>
     </row>
@@ -11677,7 +11539,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="23" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="N30" s="34"/>
     </row>
@@ -11698,7 +11560,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="23" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="N31" s="34"/>
     </row>
@@ -11719,7 +11581,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="23" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="N32" s="34"/>
     </row>
@@ -11740,7 +11602,7 @@
       </c>
       <c r="H33" s="112"/>
       <c r="I33" s="113" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N33" s="34"/>
     </row>
@@ -11761,7 +11623,7 @@
       </c>
       <c r="H34" s="112"/>
       <c r="I34" s="113" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N34" s="34"/>
     </row>
@@ -11782,7 +11644,7 @@
       </c>
       <c r="H35" s="112"/>
       <c r="I35" s="113" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="N35" s="34"/>
     </row>
@@ -11803,7 +11665,7 @@
       </c>
       <c r="H36" s="112"/>
       <c r="I36" s="113" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="N36" s="34"/>
     </row>
@@ -11824,7 +11686,7 @@
       </c>
       <c r="H37" s="112"/>
       <c r="I37" s="113" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="N37" s="34"/>
     </row>
@@ -11839,7 +11701,7 @@
       <c r="G38" s="112"/>
       <c r="H38" s="112"/>
       <c r="I38" s="113" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="N38" s="34"/>
     </row>
@@ -11860,7 +11722,7 @@
       </c>
       <c r="H39" s="112"/>
       <c r="I39" s="113" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="N39" s="34"/>
     </row>
@@ -11881,7 +11743,7 @@
       </c>
       <c r="H40" s="112"/>
       <c r="I40" s="113" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="N40" s="34"/>
     </row>
@@ -11902,7 +11764,7 @@
       </c>
       <c r="H41" s="112"/>
       <c r="I41" s="113" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="N41" s="34"/>
     </row>
@@ -11923,7 +11785,7 @@
       </c>
       <c r="H42" s="112"/>
       <c r="I42" s="113" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="N42" s="34"/>
     </row>
@@ -11938,7 +11800,7 @@
       <c r="G43" s="112"/>
       <c r="H43" s="112"/>
       <c r="I43" s="113" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="N43" s="34"/>
     </row>
@@ -11959,7 +11821,7 @@
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="113" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="N44" s="34"/>
     </row>
@@ -11980,7 +11842,7 @@
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="42" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="N45" s="34"/>
     </row>
@@ -12001,7 +11863,7 @@
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="42" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="N46" s="34"/>
     </row>
@@ -12022,7 +11884,7 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="42" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="N47" s="34"/>
     </row>
@@ -12043,7 +11905,7 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="42" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="N48" s="34"/>
     </row>
@@ -12064,7 +11926,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="42" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="N49" s="34"/>
     </row>
@@ -12085,7 +11947,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="42" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="N50" s="34"/>
     </row>
@@ -12106,7 +11968,7 @@
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="23" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="N51" s="34"/>
     </row>
@@ -12127,7 +11989,7 @@
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="23" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="N52" s="34"/>
     </row>
@@ -12162,7 +12024,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D55" s="110"/>
       <c r="E55" s="111"/>
@@ -12170,7 +12032,7 @@
       <c r="G55" s="112"/>
       <c r="H55" s="112"/>
       <c r="I55" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N55" s="34"/>
     </row>
@@ -12179,7 +12041,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D56" s="110"/>
       <c r="E56" s="111"/>
@@ -12187,7 +12049,7 @@
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
       <c r="I56" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N56" s="34"/>
     </row>
@@ -12196,7 +12058,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D57" s="110"/>
       <c r="E57" s="111"/>
@@ -12204,7 +12066,7 @@
       <c r="G57" s="112"/>
       <c r="H57" s="112"/>
       <c r="I57" s="115" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="N57" s="34"/>
     </row>
@@ -12213,7 +12075,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D58" s="110"/>
       <c r="E58" s="111"/>
@@ -12221,7 +12083,7 @@
       <c r="G58" s="112"/>
       <c r="H58" s="112"/>
       <c r="I58" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N58" s="34"/>
     </row>
@@ -12230,7 +12092,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D59" s="110"/>
       <c r="E59" s="111"/>
@@ -12238,14 +12100,14 @@
       <c r="G59" s="112"/>
       <c r="H59" s="112"/>
       <c r="I59" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="114"/>
       <c r="C60" s="11" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D60" s="110"/>
       <c r="E60" s="111"/>
@@ -12253,7 +12115,7 @@
       <c r="G60" s="112"/>
       <c r="H60" s="112"/>
       <c r="I60" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="N60" s="34"/>
     </row>
@@ -12262,7 +12124,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D61" s="110"/>
       <c r="E61" s="111"/>
@@ -12270,7 +12132,7 @@
       <c r="G61" s="112"/>
       <c r="H61" s="112"/>
       <c r="I61" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N61" s="34"/>
     </row>
@@ -12279,7 +12141,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D62" s="110"/>
       <c r="E62" s="111"/>
@@ -12287,14 +12149,14 @@
       <c r="G62" s="112"/>
       <c r="H62" s="112"/>
       <c r="I62" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N62" s="34"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="114"/>
       <c r="C63" s="11" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D63" s="110"/>
       <c r="E63" s="111"/>
@@ -12302,7 +12164,7 @@
       <c r="G63" s="112"/>
       <c r="H63" s="112"/>
       <c r="I63" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="N63" s="34"/>
     </row>
@@ -12311,7 +12173,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D64" s="110"/>
       <c r="E64" s="111"/>
@@ -12319,7 +12181,7 @@
       <c r="G64" s="112"/>
       <c r="H64" s="112"/>
       <c r="I64" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N64" s="34"/>
     </row>
@@ -12328,7 +12190,7 @@
         <v>51</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D65" s="110"/>
       <c r="E65" s="111"/>
@@ -12336,7 +12198,7 @@
       <c r="G65" s="112"/>
       <c r="H65" s="112"/>
       <c r="I65" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N65" s="34"/>
     </row>
@@ -12345,7 +12207,7 @@
         <v>52</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D66" s="110"/>
       <c r="E66" s="111"/>
@@ -12353,7 +12215,7 @@
       <c r="G66" s="112"/>
       <c r="H66" s="112"/>
       <c r="I66" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="N66" s="34"/>
     </row>
@@ -12362,7 +12224,7 @@
         <v>53</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D67" s="110"/>
       <c r="E67" s="111"/>
@@ -12370,7 +12232,7 @@
       <c r="G67" s="112"/>
       <c r="H67" s="112"/>
       <c r="I67" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N67" s="34"/>
     </row>
@@ -12379,7 +12241,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D68" s="110"/>
       <c r="E68" s="111"/>
@@ -12387,7 +12249,7 @@
       <c r="G68" s="112"/>
       <c r="H68" s="112"/>
       <c r="I68" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N68" s="34"/>
     </row>
@@ -12396,7 +12258,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D69" s="110"/>
       <c r="E69" s="111"/>
@@ -12404,7 +12266,7 @@
       <c r="G69" s="112"/>
       <c r="H69" s="112"/>
       <c r="I69" s="115" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -12414,7 +12276,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D70" s="110"/>
       <c r="E70" s="111"/>
@@ -12422,7 +12284,7 @@
       <c r="G70" s="112"/>
       <c r="H70" s="112"/>
       <c r="I70" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -12432,7 +12294,7 @@
         <v>57</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D71" s="110"/>
       <c r="E71" s="111"/>
@@ -12440,7 +12302,7 @@
       <c r="G71" s="112"/>
       <c r="H71" s="112"/>
       <c r="I71" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
@@ -12451,7 +12313,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D72" s="110"/>
       <c r="E72" s="111"/>
@@ -12459,7 +12321,7 @@
       <c r="G72" s="112"/>
       <c r="H72" s="112"/>
       <c r="I72" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
@@ -12469,7 +12331,7 @@
         <v>59</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D73" s="110"/>
       <c r="E73" s="111"/>
@@ -12477,7 +12339,7 @@
       <c r="G73" s="112"/>
       <c r="H73" s="112"/>
       <c r="I73" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
@@ -12497,7 +12359,7 @@
       <c r="G74" s="112"/>
       <c r="H74" s="112"/>
       <c r="I74" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
@@ -12515,7 +12377,7 @@
       <c r="G75" s="112"/>
       <c r="H75" s="112"/>
       <c r="I75" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
@@ -12525,7 +12387,7 @@
         <v>62</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D76" s="110"/>
       <c r="E76" s="111"/>
@@ -12533,7 +12395,7 @@
       <c r="G76" s="112"/>
       <c r="H76" s="112"/>
       <c r="I76" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
@@ -12543,7 +12405,7 @@
         <v>63</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D77" s="110"/>
       <c r="E77" s="111"/>
@@ -12551,7 +12413,7 @@
       <c r="G77" s="112"/>
       <c r="H77" s="112"/>
       <c r="I77" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
@@ -12561,7 +12423,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D78" s="110"/>
       <c r="E78" s="111"/>
@@ -12569,7 +12431,7 @@
       <c r="G78" s="112"/>
       <c r="H78" s="112"/>
       <c r="I78" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
@@ -12579,7 +12441,7 @@
         <v>65</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
@@ -12587,7 +12449,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
@@ -12597,7 +12459,7 @@
         <v>66</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
@@ -12605,7 +12467,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="L80" s="34"/>
     </row>
@@ -12614,7 +12476,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
@@ -12622,7 +12484,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
@@ -12630,7 +12492,7 @@
         <v>68</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
@@ -12638,7 +12500,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
@@ -12646,7 +12508,7 @@
         <v>69</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
@@ -12654,7 +12516,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
@@ -12662,7 +12524,7 @@
         <v>70</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
@@ -12670,7 +12532,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
@@ -12678,7 +12540,7 @@
         <v>71</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
@@ -12686,7 +12548,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="115" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -12702,7 +12564,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
@@ -12718,7 +12580,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="115" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
@@ -13060,34 +12922,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>530</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -14623,32 +14485,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -14926,34 +14788,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>532</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -15580,34 +15442,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -16150,34 +16012,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -17768,34 +17630,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -19420,34 +19282,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -21072,34 +20934,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -22724,34 +22586,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -24373,34 +24235,34 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -24846,32 +24708,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -25146,32 +25008,32 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>449</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -25799,34 +25661,34 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="128" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -26292,36 +26154,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -26568,7 +26430,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -26608,7 +26470,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -26620,7 +26482,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="25" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -26636,7 +26498,7 @@
     <row r="20" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B20" s="47"/>
       <c r="C20" s="14" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -26648,13 +26510,13 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="25" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B21" s="47"/>
       <c r="C21" s="14" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -26666,13 +26528,13 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="25" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B22" s="47"/>
       <c r="C22" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -26684,13 +26546,13 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="25" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B23" s="47"/>
       <c r="C23" s="14" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -26702,13 +26564,13 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="25" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B24" s="47"/>
       <c r="C24" s="14" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -26720,7 +26582,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="25" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -26736,7 +26598,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="47"/>
       <c r="C26" s="14" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -26748,7 +26610,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="25" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
@@ -26766,7 +26628,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="25" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -26784,7 +26646,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="25" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -26802,7 +26664,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="25" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -26820,7 +26682,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="25" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
@@ -26838,7 +26700,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="25" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -26937,36 +26799,36 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
       <c r="D2" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -28777,10 +28639,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28798,32 +28660,32 @@
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137" t="s">
-        <v>670</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="128" t="s">
+        <v>666</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -28856,7 +28718,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>66</v>
@@ -28878,7 +28740,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
@@ -28932,310 +28794,178 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="123">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="125" t="s">
+      <c r="C10" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="23" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="126">
-        <v>0</v>
-      </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127">
-        <v>1</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="123">
-        <v>6</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>676</v>
-      </c>
-      <c r="D11" s="125" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="126">
-        <v>0</v>
-      </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="123">
-        <v>7</v>
-      </c>
-      <c r="C12" s="124" t="s">
-        <v>677</v>
-      </c>
-      <c r="D12" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="127">
-        <v>0</v>
-      </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="123">
-        <v>8</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="126">
-        <v>0</v>
-      </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="128" t="s">
-        <v>653</v>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="123">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="126">
-        <v>0</v>
-      </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="130" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="123">
+      <c r="E14" s="4"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="126">
-        <v>0</v>
-      </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="123">
-        <v>11</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="126">
-        <v>0</v>
-      </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128" t="s">
-        <v>656</v>
-      </c>
+      <c r="D15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="23" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="23" t="s">
-        <v>775</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="23" t="s">
-        <v>782</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="23" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="23" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="23" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="26"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -29246,10 +28976,10 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D19">
       <formula1>"固定长度ANSI字符,固定长度Unicode字符,不固定长度ANSI字符,不固定长度Unicode字符,最大长度ANSI字符,最大长度Unicode字符,数字(-32768~32767),数字(-2147483648~2147483647),数字(-9223372036854775808 ~ 9223372036854775807),数字(含小数),日期时间"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G19">
       <formula1>"NVL,否,是"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -2667,10 +2667,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>段(5为5期，10为10期 20为20期,40为40期,80为80</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>出现&gt;20期遗失的数量</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2752,6 +2748,10 @@
   </si>
   <si>
     <t>位数(0全位，1个位 2 十3百，4千，5万  6  总位和的)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>段(5为5期，10为10期，15期， 20为20期</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3742,6 +3742,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3801,15 +3810,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4169,30 +4169,30 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -4468,32 +4468,32 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -4888,20 +4888,20 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="155"/>
+      <c r="B3" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="158"/>
       <c r="D3" s="128"/>
       <c r="E3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="157" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4909,18 +4909,18 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="163" t="s">
         <v>688</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="137" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5106,7 +5106,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="137" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5131,7 +5131,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="144" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5156,7 +5156,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="137" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5181,7 +5181,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="137" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5416,34 +5416,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="156" t="s">
         <v>689</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -5807,34 +5807,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -9404,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9418,36 +9418,36 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="164" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -9578,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -9862,7 +9862,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9870,7 +9870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -9885,34 +9885,34 @@
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="148"/>
+      <c r="B4" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="151"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="150" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="147" t="s">
+      <c r="C5" s="155"/>
+      <c r="D5" s="150" t="s">
         <v>472</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -10302,38 +10302,38 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="155"/>
+      <c r="B3" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="158"/>
       <c r="D3" s="128" t="s">
         <v>721</v>
       </c>
       <c r="E3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="167" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="169"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="154" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="137" t="s">
@@ -10882,34 +10882,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="164" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="147" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="150" t="s">
         <v>480</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -11339,34 +11339,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="164" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>495</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="123" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="123" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="123" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -13261,32 +13261,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -13563,34 +13563,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>521</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -15128,34 +15128,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>554</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -15782,34 +15782,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>575</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -16352,34 +16352,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -17970,34 +17970,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -19622,34 +19622,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -21274,34 +21274,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -22926,34 +22926,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -24575,34 +24575,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -25048,32 +25048,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -25348,32 +25348,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -26001,34 +26001,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="147" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -26494,36 +26494,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -27142,7 +27142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -27163,36 +27163,36 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
       <c r="D2" s="115" t="s">
         <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -27289,16 +27289,16 @@
       <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="168"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="87">
         <v>0</v>
       </c>
       <c r="G8" s="87"/>
       <c r="H8" s="87"/>
-      <c r="I8" s="169" t="s">
+      <c r="I8" s="149" t="s">
         <v>695</v>
       </c>
     </row>
@@ -27309,17 +27309,17 @@
       <c r="C9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="168"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="87">
         <v>0</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
-      <c r="I9" s="169" t="s">
-        <v>730</v>
+      <c r="I9" s="149" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -27329,17 +27329,17 @@
       <c r="C10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="168"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="87">
         <v>0</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="169" t="s">
-        <v>731</v>
+      <c r="I10" s="149" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -27349,17 +27349,17 @@
       <c r="C11" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="168"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="87">
         <v>0</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
-      <c r="I11" s="169" t="s">
-        <v>732</v>
+      <c r="I11" s="149" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -27369,17 +27369,17 @@
       <c r="C12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="168"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="87">
         <v>0</v>
       </c>
       <c r="G12" s="87"/>
       <c r="H12" s="87"/>
-      <c r="I12" s="169" t="s">
-        <v>733</v>
+      <c r="I12" s="149" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -27389,17 +27389,17 @@
       <c r="C13" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="87">
         <v>0</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
-      <c r="I13" s="169" t="s">
-        <v>734</v>
+      <c r="I13" s="149" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -29464,34 +29464,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="150" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="156" t="s">
         <v>690</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="大小单双连出率表" sheetId="51" r:id="rId16"/>
     <sheet name="规律详表" sheetId="49" r:id="rId17"/>
     <sheet name="全位分析分段统计" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="59" r:id="rId19"/>
+    <sheet name="消息告警表" sheetId="59" r:id="rId19"/>
     <sheet name="全位1分析表" sheetId="46" state="hidden" r:id="rId20"/>
     <sheet name="全位补充表" sheetId="48" state="hidden" r:id="rId21"/>
     <sheet name="全位遗漏表" sheetId="33" state="hidden" r:id="rId22"/>
@@ -40,12 +40,12 @@
     <sheet name="每天十位统计" sheetId="43" state="hidden" r:id="rId26"/>
     <sheet name="每天个位统计" sheetId="44" state="hidden" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="761">
   <si>
     <t>EF实体名</t>
   </si>
@@ -2297,10 +2297,6 @@
     </r>
   </si>
   <si>
-    <t>剩下&gt;20期遗失的数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -2703,10 +2699,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;20期遗失出现的位置数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;20期遗失数字分布的个数数量</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2752,6 +2744,177 @@
   </si>
   <si>
     <t>段(5为5期，10为10期，15期， 20为20期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20期遗失出现时的出现位置数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下&gt;20期遗失的数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C099</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计完成标志  1完成 0未完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>[MessageID]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[IsSend]</t>
+  </si>
+  <si>
+    <t>T_121_19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息告警表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MessageInfo]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SonID]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InsertTime]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3300,7 +3463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3811,6 +3974,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4160,7 +4329,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5054,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -5081,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="137" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5106,7 +5275,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="137" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5131,7 +5300,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="144" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5156,7 +5325,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="137" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5181,7 +5350,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="137" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5788,7 +5957,7 @@
   <dimension ref="A1:AJ122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9405,7 +9574,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9578,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -9870,7 +10039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -10307,7 +10476,7 @@
       </c>
       <c r="C3" s="158"/>
       <c r="D3" s="128" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E3" s="128" t="s">
         <v>1</v>
@@ -10452,11 +10621,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="137" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -10479,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -10501,7 +10670,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="137" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -10523,7 +10692,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="144" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -10545,7 +10714,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="137" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -10567,7 +10736,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="137" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -10589,7 +10758,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="144" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -10611,7 +10780,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="137" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -10633,7 +10802,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="137" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -11323,7 +11492,7 @@
   <dimension ref="B1:P114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11496,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -11536,7 +11705,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="123" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -11556,7 +11725,7 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="123" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -11576,7 +11745,7 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="123" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -13229,16 +13398,374 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="151"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="156" t="s">
+        <v>755</v>
+      </c>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
+    </row>
+    <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="156" t="s">
+        <v>756</v>
+      </c>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="171" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>748</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="170" t="s">
+        <v>749</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="11">
+        <v>512</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="123" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="170" t="s">
+        <v>750</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="170" t="s">
+        <v>751</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="123" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="170" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="123" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="8">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G25">
+      <formula1>"NVL,否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25">
+      <formula1>"固定长度ANSI字符,固定长度Unicode字符,不固定长度ANSI字符,不固定长度Unicode字符,最大长度ANSI字符,最大长度Unicode字符,数字(-32768~32767),数字(-2147483648~2147483647),数字(-9223372036854775808 ~ 9223372036854775807),数字(含小数),日期时间"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26480,7 +27007,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26490,7 +27017,7 @@
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="22" customWidth="1"/>
+    <col min="9" max="9" width="35" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -26835,7 +27362,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="121">
         <v>14</v>
       </c>
@@ -26855,7 +27382,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="121">
         <v>15</v>
       </c>
@@ -26875,7 +27402,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="121">
         <v>16</v>
       </c>
@@ -26895,7 +27422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="121">
         <v>17</v>
       </c>
@@ -26915,7 +27442,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="121">
         <v>18</v>
       </c>
@@ -27068,14 +27595,24 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="121"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="121">
+        <v>26</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="29" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="121"/>
@@ -27142,8 +27679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27299,7 +27836,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="87"/>
       <c r="I8" s="149" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -27319,7 +27856,7 @@
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
       <c r="I9" s="149" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -27339,7 +27876,7 @@
       <c r="G10" s="87"/>
       <c r="H10" s="87"/>
       <c r="I10" s="149" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -27359,7 +27896,7 @@
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="149" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -27379,7 +27916,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="87"/>
       <c r="I12" s="149" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -27399,7 +27936,7 @@
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="149" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -28069,7 +28606,7 @@
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28085,7 +28622,7 @@
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
       <c r="I51" s="126" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28101,7 +28638,7 @@
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
       <c r="I52" s="126" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28117,7 +28654,7 @@
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
       <c r="I53" s="126" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28125,7 +28662,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="145" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D54" s="146"/>
       <c r="E54" s="125"/>
@@ -28133,7 +28670,7 @@
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
       <c r="I54" s="126" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28141,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="145" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D55" s="146"/>
       <c r="E55" s="125"/>
@@ -28149,7 +28686,7 @@
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
       <c r="I55" s="126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28157,7 +28694,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="145" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D56" s="146"/>
       <c r="E56" s="125"/>
@@ -28165,7 +28702,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
       <c r="I56" s="126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28193,7 +28730,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="145" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="146"/>
       <c r="E59" s="125"/>
@@ -28201,7 +28738,7 @@
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
       <c r="I59" s="126" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28209,7 +28746,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D60" s="146"/>
       <c r="E60" s="125"/>
@@ -28217,7 +28754,7 @@
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
       <c r="I60" s="126" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="61" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28225,7 +28762,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D61" s="146"/>
       <c r="E61" s="125"/>
@@ -28233,7 +28770,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
       <c r="I61" s="126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28241,7 +28778,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="145" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D62" s="146"/>
       <c r="E62" s="125"/>
@@ -28249,7 +28786,7 @@
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
       <c r="I62" s="126" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="63" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28257,7 +28794,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D63" s="146"/>
       <c r="E63" s="125"/>
@@ -28265,7 +28802,7 @@
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
       <c r="I63" s="126" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="64" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28273,7 +28810,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D64" s="146"/>
       <c r="E64" s="125"/>
@@ -28281,7 +28818,7 @@
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
       <c r="I64" s="126" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="65" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28289,7 +28826,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D65" s="146"/>
       <c r="E65" s="125"/>
@@ -28297,7 +28834,7 @@
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
       <c r="I65" s="126" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -29446,7 +29983,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -1483,9 +1483,6 @@
     <t>走势热度表</t>
   </si>
   <si>
-    <t>位数(0全位，1个位 2 十3百，4千，5万 )</t>
-  </si>
-  <si>
     <t>段(5为5期，10为10期，15为期 20为20期）</t>
   </si>
   <si>
@@ -2663,46 +2660,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>出现&gt;20期遗失的数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>剩下&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20M1的数量</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出现&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20M1的数量</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;20期遗失数字分布的个数数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是否出现 1为出现  0未出</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2744,14 +2701,6 @@
   </si>
   <si>
     <t>段(5为5期，10为10期，15期， 20为20期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;20期遗失出现时的出现位置数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩下&gt;20期遗失的数量</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2915,6 +2864,28 @@
   </si>
   <si>
     <t>[InsertTime]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> //出现&gt;20期遗失的数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//出现&gt;20M1的数量 </t>
+  </si>
+  <si>
+    <t>//剩下&gt;20期遗失的数量</t>
+  </si>
+  <si>
+    <t>//剩下&gt;20M1的数量</t>
+  </si>
+  <si>
+    <t>//剩下&gt;20集中的数字个数</t>
+  </si>
+  <si>
+    <t>//&gt;剩下20期遗失数字分布的个数数量</t>
+  </si>
+  <si>
+    <t>位数 （1个位 2 十3百，4千，5万 )</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3914,6 +3885,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3973,12 +3950,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4338,30 +4309,30 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -4637,32 +4608,32 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="152" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -5042,7 +5013,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5057,20 +5028,20 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="158"/>
+      <c r="B3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="160"/>
       <c r="D3" s="128"/>
       <c r="E3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="159" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5078,18 +5049,18 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163" t="s">
-        <v>688</v>
-      </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5223,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -5250,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="137" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5275,7 +5246,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="137" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5300,7 +5271,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="144" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5325,7 +5296,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="137" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5350,7 +5321,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="137" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5571,7 +5542,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5585,34 +5556,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="152" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="s">
-        <v>689</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158" t="s">
+        <v>688</v>
+      </c>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -5976,34 +5947,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="166" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -9573,7 +9544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -9587,36 +9558,36 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="166" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -9747,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -10039,8 +10010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10054,34 +10025,34 @@
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="151"/>
+      <c r="B4" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="153"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="152" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="150" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="153"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -10189,8 +10160,8 @@
       <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>473</v>
+      <c r="I10" s="123" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -10212,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10234,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -10274,7 +10245,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -10294,7 +10265,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -10471,38 +10442,38 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="158"/>
+      <c r="B3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="160"/>
       <c r="D3" s="128" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="169" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="157" t="s">
-        <v>478</v>
-      </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="159" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -10621,11 +10592,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="137" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="137" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -10648,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="137" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -10670,7 +10641,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="137" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -10692,7 +10663,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="144" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -10714,7 +10685,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="137" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -10736,7 +10707,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="137" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -10758,7 +10729,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="144" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -10780,7 +10751,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="137" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -10802,7 +10773,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="137" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -11051,34 +11022,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="166" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="150" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="152" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -11114,7 +11085,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7">
@@ -11147,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -11169,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -11191,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -11211,7 +11182,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -11231,7 +11202,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -11251,7 +11222,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -11271,7 +11242,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -11323,7 +11294,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -11343,7 +11314,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -11363,7 +11334,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -11383,7 +11354,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -11403,7 +11374,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -11492,7 +11463,7 @@
   <dimension ref="B1:P114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11508,34 +11479,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="166" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -11576,13 +11547,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -11599,7 +11570,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="38" t="s">
@@ -11619,7 +11590,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="38" t="s">
@@ -11639,13 +11610,13 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -11659,13 +11630,13 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -11681,11 +11652,11 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -11701,11 +11672,11 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="123" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -11721,11 +11692,11 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="123" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -11741,11 +11712,11 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="123" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -11761,7 +11732,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
@@ -11779,7 +11750,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="51"/>
@@ -11797,7 +11768,7 @@
       <c r="E16" s="49"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -11816,7 +11787,7 @@
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="51"/>
@@ -11835,7 +11806,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="51"/>
@@ -11854,7 +11825,7 @@
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="51"/>
@@ -11873,7 +11844,7 @@
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="51"/>
@@ -11892,7 +11863,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="51"/>
@@ -11911,7 +11882,7 @@
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="51"/>
@@ -11930,7 +11901,7 @@
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="51"/>
@@ -11949,7 +11920,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="27"/>
@@ -11981,7 +11952,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="27"/>
@@ -12000,7 +11971,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="27"/>
@@ -12019,7 +11990,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="27"/>
@@ -12038,7 +12009,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="27"/>
@@ -12057,7 +12028,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="27"/>
@@ -12076,7 +12047,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="27"/>
@@ -12095,7 +12066,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="27"/>
@@ -12114,7 +12085,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="51"/>
@@ -12133,7 +12104,7 @@
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="51"/>
@@ -12152,7 +12123,7 @@
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="51"/>
@@ -12171,7 +12142,7 @@
       <c r="E36" s="49"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H36" s="50"/>
       <c r="I36" s="51"/>
@@ -12190,7 +12161,7 @@
       <c r="E37" s="49"/>
       <c r="F37" s="50"/>
       <c r="G37" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="51"/>
@@ -12222,7 +12193,7 @@
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H39" s="50"/>
       <c r="I39" s="51"/>
@@ -12241,7 +12212,7 @@
       <c r="E40" s="49"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="51"/>
@@ -12260,7 +12231,7 @@
       <c r="E41" s="49"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H41" s="50"/>
       <c r="I41" s="51"/>
@@ -12279,7 +12250,7 @@
       <c r="E42" s="49"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H42" s="50"/>
       <c r="I42" s="51"/>
@@ -12311,7 +12282,7 @@
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="51"/>
@@ -12330,7 +12301,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="38"/>
@@ -12349,7 +12320,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="38"/>
@@ -12368,7 +12339,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="38"/>
@@ -12387,7 +12358,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="38"/>
@@ -12406,7 +12377,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="38"/>
@@ -12425,7 +12396,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="38"/>
@@ -12444,7 +12415,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="27"/>
@@ -12463,7 +12434,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="27"/>
@@ -12526,7 +12497,7 @@
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N57" s="25"/>
     </row>
@@ -12543,7 +12514,7 @@
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
       <c r="I58" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N58" s="25"/>
     </row>
@@ -12560,7 +12531,7 @@
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N59" s="25"/>
     </row>
@@ -12577,7 +12548,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N60" s="25"/>
     </row>
@@ -12586,7 +12557,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
@@ -12594,14 +12565,14 @@
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N61" s="25"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="46"/>
       <c r="C62" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" s="48"/>
       <c r="E62" s="49"/>
@@ -12609,7 +12580,7 @@
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
       <c r="I62" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N62" s="25"/>
     </row>
@@ -12626,7 +12597,7 @@
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N63" s="25"/>
     </row>
@@ -12635,7 +12606,7 @@
         <v>49</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="49"/>
@@ -12643,14 +12614,14 @@
       <c r="G64" s="50"/>
       <c r="H64" s="50"/>
       <c r="I64" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N64" s="25"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="46"/>
       <c r="C65" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="49"/>
@@ -12658,7 +12629,7 @@
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N65" s="25"/>
     </row>
@@ -12675,7 +12646,7 @@
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
       <c r="I66" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N66" s="25"/>
     </row>
@@ -12684,7 +12655,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D67" s="48"/>
       <c r="E67" s="49"/>
@@ -12692,7 +12663,7 @@
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N67" s="25"/>
     </row>
@@ -12701,7 +12672,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D68" s="48"/>
       <c r="E68" s="49"/>
@@ -12709,7 +12680,7 @@
       <c r="G68" s="50"/>
       <c r="H68" s="50"/>
       <c r="I68" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N68" s="25"/>
     </row>
@@ -12726,7 +12697,7 @@
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N69" s="25"/>
     </row>
@@ -12735,7 +12706,7 @@
         <v>54</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D70" s="48"/>
       <c r="E70" s="49"/>
@@ -12743,7 +12714,7 @@
       <c r="G70" s="50"/>
       <c r="H70" s="50"/>
       <c r="I70" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N70" s="25"/>
     </row>
@@ -12752,7 +12723,7 @@
         <v>55</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D71" s="48"/>
       <c r="E71" s="49"/>
@@ -12760,7 +12731,7 @@
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -12778,7 +12749,7 @@
       <c r="G72" s="50"/>
       <c r="H72" s="50"/>
       <c r="I72" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -12788,7 +12759,7 @@
         <v>57</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D73" s="48"/>
       <c r="E73" s="49"/>
@@ -12796,7 +12767,7 @@
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -12807,7 +12778,7 @@
         <v>58</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D74" s="48"/>
       <c r="E74" s="49"/>
@@ -12815,7 +12786,7 @@
       <c r="G74" s="50"/>
       <c r="H74" s="50"/>
       <c r="I74" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -12833,7 +12804,7 @@
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -12853,7 +12824,7 @@
       <c r="G76" s="50"/>
       <c r="H76" s="50"/>
       <c r="I76" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
@@ -12871,7 +12842,7 @@
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K77" s="25"/>
       <c r="L77" s="25"/>
@@ -12889,7 +12860,7 @@
       <c r="G78" s="50"/>
       <c r="H78" s="50"/>
       <c r="I78" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
@@ -12899,7 +12870,7 @@
         <v>63</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D79" s="48"/>
       <c r="E79" s="49"/>
@@ -12907,7 +12878,7 @@
       <c r="G79" s="50"/>
       <c r="H79" s="50"/>
       <c r="I79" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
@@ -12917,7 +12888,7 @@
         <v>64</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D80" s="48"/>
       <c r="E80" s="49"/>
@@ -12925,7 +12896,7 @@
       <c r="G80" s="50"/>
       <c r="H80" s="50"/>
       <c r="I80" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
@@ -12943,7 +12914,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
@@ -12953,7 +12924,7 @@
         <v>66</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
@@ -12961,7 +12932,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L82" s="25"/>
     </row>
@@ -12970,7 +12941,7 @@
         <v>67</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="11"/>
@@ -12978,7 +12949,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.15">
@@ -12994,7 +12965,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.15">
@@ -13002,7 +12973,7 @@
         <v>69</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="11"/>
@@ -13010,7 +12981,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.15">
@@ -13018,7 +12989,7 @@
         <v>70</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
@@ -13026,7 +12997,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.15">
@@ -13042,7 +13013,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.15">
@@ -13050,7 +13021,7 @@
         <v>72</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="11"/>
@@ -13058,7 +13029,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.15">
@@ -13066,7 +13037,7 @@
         <v>73</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="11"/>
@@ -13074,7 +13045,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
@@ -13400,7 +13371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
@@ -13414,34 +13385,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="156" t="s">
-        <v>755</v>
-      </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="158" t="s">
+        <v>748</v>
+      </c>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="s">
-        <v>756</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -13474,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -13487,16 +13458,16 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="171" t="s">
-        <v>753</v>
+      <c r="I6" s="151" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="170" t="s">
-        <v>748</v>
+      <c r="C7" s="150" t="s">
+        <v>741</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>58</v>
@@ -13509,15 +13480,15 @@
         <v>1</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="170" t="s">
-        <v>749</v>
+      <c r="C8" s="150" t="s">
+        <v>742</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>61</v>
@@ -13529,15 +13500,15 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="123" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="170" t="s">
-        <v>750</v>
+      <c r="C9" s="150" t="s">
+        <v>743</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>13</v>
@@ -13549,15 +13520,15 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="170" t="s">
-        <v>751</v>
+      <c r="C10" s="150" t="s">
+        <v>744</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>146</v>
@@ -13569,15 +13540,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="123" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="170" t="s">
-        <v>752</v>
+      <c r="C11" s="150" t="s">
+        <v>745</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>13</v>
@@ -13589,7 +13560,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="123" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -13788,32 +13759,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -14090,34 +14061,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>521</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -14160,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>184</v>
@@ -14184,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
@@ -14206,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
@@ -14230,7 +14201,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -14250,7 +14221,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14270,7 +14241,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14290,7 +14261,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14310,7 +14281,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14330,7 +14301,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14350,7 +14321,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14370,7 +14341,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14390,7 +14361,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14410,7 +14381,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14430,7 +14401,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14450,7 +14421,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14470,7 +14441,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14490,7 +14461,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14510,7 +14481,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14530,7 +14501,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14550,7 +14521,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14570,7 +14541,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14590,7 +14561,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14610,7 +14581,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14630,7 +14601,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14650,7 +14621,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14670,7 +14641,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14690,7 +14661,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14710,7 +14681,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14730,7 +14701,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14750,7 +14721,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14770,7 +14741,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14790,7 +14761,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14810,7 +14781,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14830,7 +14801,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14850,7 +14821,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -15002,7 +14973,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -15655,34 +15626,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="F2" s="152" t="s">
+        <v>553</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -15747,7 +15718,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -15767,7 +15738,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -15787,7 +15758,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -15807,7 +15778,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -15827,7 +15798,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -15847,7 +15818,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -15867,7 +15838,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -15885,7 +15856,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -15903,7 +15874,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -15921,7 +15892,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -15939,7 +15910,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -15957,7 +15928,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -15975,7 +15946,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -15993,7 +15964,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -16011,7 +15982,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -16029,7 +16000,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -16047,7 +16018,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -16065,7 +16036,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -16083,7 +16054,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -16103,7 +16074,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -16309,34 +16280,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
-        <v>494</v>
-      </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="F2" s="152" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>575</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -16379,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -16443,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -16471,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -16491,7 +16462,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -16511,7 +16482,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -16531,7 +16502,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -16571,7 +16542,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -16611,7 +16582,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -16651,7 +16622,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -16691,7 +16662,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -16731,7 +16702,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -16771,7 +16742,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -16879,34 +16850,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -16956,7 +16927,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -16978,10 +16949,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -17006,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -17026,7 +16997,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -17046,7 +17017,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -17066,7 +17037,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -17086,7 +17057,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -17106,7 +17077,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -17126,7 +17097,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -17146,7 +17117,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -17167,7 +17138,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -17188,7 +17159,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -17209,7 +17180,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -17230,7 +17201,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -17251,7 +17222,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -17272,7 +17243,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -17293,7 +17264,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -17314,7 +17285,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -17335,7 +17306,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -17356,7 +17327,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -17377,7 +17348,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -17398,7 +17369,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -17419,7 +17390,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -17440,7 +17411,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -17513,7 +17484,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -17534,7 +17505,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -17555,7 +17526,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -17576,7 +17547,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -17597,7 +17568,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -17606,7 +17577,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>231</v>
@@ -17618,7 +17589,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -17627,7 +17598,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>233</v>
@@ -17639,7 +17610,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -17648,7 +17619,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>235</v>
@@ -17660,7 +17631,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -17669,7 +17640,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>237</v>
@@ -17681,7 +17652,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -17703,7 +17674,7 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -17725,7 +17696,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -17735,7 +17706,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>370</v>
@@ -17747,7 +17718,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -17757,7 +17728,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>372</v>
@@ -17769,7 +17740,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -17779,7 +17750,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>402</v>
@@ -17791,7 +17762,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -17801,7 +17772,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>405</v>
@@ -17813,7 +17784,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -17823,7 +17794,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>408</v>
@@ -17835,7 +17806,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -17845,7 +17816,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>410</v>
@@ -17857,7 +17828,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -17867,7 +17838,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>412</v>
@@ -17879,7 +17850,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -17889,7 +17860,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>437</v>
@@ -17901,7 +17872,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -17923,7 +17894,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -17961,7 +17932,7 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
@@ -17971,7 +17942,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>370</v>
@@ -17983,7 +17954,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -17993,7 +17964,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>372</v>
@@ -18005,7 +17976,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -18015,7 +17986,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>402</v>
@@ -18027,7 +17998,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -18037,7 +18008,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>405</v>
@@ -18049,7 +18020,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -18059,7 +18030,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>408</v>
@@ -18071,7 +18042,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -18081,7 +18052,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>410</v>
@@ -18093,7 +18064,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -18103,7 +18074,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>412</v>
@@ -18115,7 +18086,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -18125,7 +18096,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>437</v>
@@ -18137,7 +18108,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -18147,7 +18118,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>414</v>
@@ -18159,7 +18130,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -18169,7 +18140,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>439</v>
@@ -18181,7 +18152,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -18191,7 +18162,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>416</v>
@@ -18203,7 +18174,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -18213,7 +18184,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>441</v>
@@ -18225,7 +18196,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -18235,7 +18206,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>418</v>
@@ -18247,7 +18218,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -18257,7 +18228,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>443</v>
@@ -18269,7 +18240,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -18279,7 +18250,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>420</v>
@@ -18291,7 +18262,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -18301,7 +18272,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>445</v>
@@ -18313,7 +18284,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -18323,7 +18294,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>422</v>
@@ -18335,7 +18306,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -18345,7 +18316,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>447</v>
@@ -18357,7 +18328,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -18367,7 +18338,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>424</v>
@@ -18379,7 +18350,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -18497,34 +18468,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -18574,7 +18545,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -18596,10 +18567,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -18624,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -18644,7 +18615,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -18664,7 +18635,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -18684,7 +18655,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -18704,7 +18675,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -18724,7 +18695,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18744,7 +18715,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -18764,7 +18735,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -18785,7 +18756,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -18806,7 +18777,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -18827,7 +18798,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -18848,7 +18819,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -18869,7 +18840,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -18890,7 +18861,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -18911,7 +18882,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -18932,7 +18903,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -18953,7 +18924,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -19123,7 +19094,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -19144,7 +19115,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -19165,7 +19136,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -19186,7 +19157,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -19207,7 +19178,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -19228,7 +19199,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -19237,7 +19208,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -19249,7 +19220,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -19258,7 +19229,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -19270,7 +19241,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -19279,7 +19250,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -19291,7 +19262,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -19300,7 +19271,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -19312,7 +19283,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -19334,7 +19305,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -19356,7 +19327,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -19366,7 +19337,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -19378,7 +19349,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -19388,7 +19359,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -19400,7 +19371,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -19410,7 +19381,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -19422,7 +19393,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -19432,7 +19403,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -19444,7 +19415,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -19454,7 +19425,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -19466,7 +19437,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -19476,7 +19447,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -19488,7 +19459,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -19498,7 +19469,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -19510,7 +19481,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -19520,7 +19491,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -19532,7 +19503,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -19554,7 +19525,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -19592,7 +19563,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -19614,7 +19585,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -19624,7 +19595,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -19636,7 +19607,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -19646,7 +19617,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -19658,7 +19629,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -19668,7 +19639,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -19680,7 +19651,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -19690,7 +19661,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -19702,7 +19673,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -19712,7 +19683,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -19724,7 +19695,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -19734,7 +19705,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -19746,7 +19717,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -19756,7 +19727,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -19768,7 +19739,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -19778,7 +19749,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -19790,7 +19761,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -19800,7 +19771,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -19812,7 +19783,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -19822,7 +19793,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -19834,7 +19805,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -19844,7 +19815,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -19856,7 +19827,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -19866,7 +19837,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -19878,7 +19849,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -19888,7 +19859,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -19900,7 +19871,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -19910,7 +19881,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -19922,7 +19893,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -19932,7 +19903,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -19944,7 +19915,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -19954,7 +19925,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -19966,7 +19937,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -19976,7 +19947,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -19988,7 +19959,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -19998,7 +19969,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -20010,7 +19981,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -20020,7 +19991,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -20032,7 +20003,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -20149,34 +20120,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -20226,7 +20197,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -20248,10 +20219,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -20276,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -20296,7 +20267,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -20316,7 +20287,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -20336,7 +20307,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -20356,7 +20327,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -20376,7 +20347,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20396,7 +20367,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -20416,7 +20387,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -20437,7 +20408,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -20458,7 +20429,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -20479,7 +20450,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -20500,7 +20471,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -20521,7 +20492,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -20542,7 +20513,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -20563,7 +20534,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -20584,7 +20555,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -20605,7 +20576,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -20775,7 +20746,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -20796,7 +20767,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -20817,7 +20788,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -20838,7 +20809,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -20859,7 +20830,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -20880,7 +20851,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -20889,7 +20860,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -20901,7 +20872,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -20910,7 +20881,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -20922,7 +20893,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -20931,7 +20902,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -20943,7 +20914,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -20952,7 +20923,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -20964,7 +20935,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -20986,7 +20957,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -21008,7 +20979,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -21018,7 +20989,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -21030,7 +21001,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -21040,7 +21011,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -21052,7 +21023,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -21062,7 +21033,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -21074,7 +21045,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -21084,7 +21055,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -21096,7 +21067,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -21106,7 +21077,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -21118,7 +21089,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -21128,7 +21099,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -21140,7 +21111,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -21150,7 +21121,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -21162,7 +21133,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -21172,7 +21143,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -21184,7 +21155,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -21206,7 +21177,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -21244,7 +21215,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -21266,7 +21237,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -21276,7 +21247,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -21288,7 +21259,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -21298,7 +21269,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -21310,7 +21281,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -21320,7 +21291,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -21332,7 +21303,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -21342,7 +21313,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -21354,7 +21325,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -21364,7 +21335,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -21376,7 +21347,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -21386,7 +21357,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -21398,7 +21369,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -21408,7 +21379,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -21420,7 +21391,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -21430,7 +21401,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -21442,7 +21413,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -21452,7 +21423,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -21464,7 +21435,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -21474,7 +21445,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -21486,7 +21457,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -21496,7 +21467,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -21508,7 +21479,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -21518,7 +21489,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -21530,7 +21501,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -21540,7 +21511,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -21552,7 +21523,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -21562,7 +21533,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -21574,7 +21545,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -21584,7 +21555,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -21596,7 +21567,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -21606,7 +21577,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -21618,7 +21589,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -21628,7 +21599,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -21640,7 +21611,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -21650,7 +21621,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -21662,7 +21633,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -21672,7 +21643,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -21684,7 +21655,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -21801,34 +21772,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -21878,7 +21849,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -21900,10 +21871,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -21928,7 +21899,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -21948,7 +21919,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -21968,7 +21939,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -21988,7 +21959,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -22008,7 +21979,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -22028,7 +21999,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -22048,7 +22019,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -22068,7 +22039,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -22089,7 +22060,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -22110,7 +22081,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -22131,7 +22102,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -22152,7 +22123,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -22173,7 +22144,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -22194,7 +22165,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -22215,7 +22186,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -22236,7 +22207,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -22257,7 +22228,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -22427,7 +22398,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -22448,7 +22419,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -22469,7 +22440,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -22490,7 +22461,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -22511,7 +22482,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -22532,7 +22503,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -22541,7 +22512,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -22553,7 +22524,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -22562,7 +22533,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -22574,7 +22545,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -22583,7 +22554,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -22595,7 +22566,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -22604,7 +22575,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -22616,7 +22587,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -22638,7 +22609,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -22660,7 +22631,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -22670,7 +22641,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -22682,7 +22653,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -22692,7 +22663,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -22704,7 +22675,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -22714,7 +22685,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -22726,7 +22697,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -22736,7 +22707,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -22748,7 +22719,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -22758,7 +22729,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -22770,7 +22741,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -22780,7 +22751,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -22792,7 +22763,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -22802,7 +22773,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -22814,7 +22785,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -22824,7 +22795,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -22836,7 +22807,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -22858,7 +22829,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -22896,7 +22867,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -22918,7 +22889,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -22928,7 +22899,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -22940,7 +22911,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -22950,7 +22921,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -22962,7 +22933,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -22972,7 +22943,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -22984,7 +22955,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -22994,7 +22965,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -23006,7 +22977,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -23016,7 +22987,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -23028,7 +22999,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -23038,7 +23009,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -23050,7 +23021,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -23060,7 +23031,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -23072,7 +23043,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -23082,7 +23053,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -23094,7 +23065,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -23104,7 +23075,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -23116,7 +23087,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -23126,7 +23097,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -23138,7 +23109,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -23148,7 +23119,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -23160,7 +23131,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -23170,7 +23141,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -23182,7 +23153,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -23192,7 +23163,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -23204,7 +23175,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -23214,7 +23185,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -23226,7 +23197,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -23236,7 +23207,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -23248,7 +23219,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -23258,7 +23229,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -23270,7 +23241,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -23280,7 +23251,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -23292,7 +23263,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -23302,7 +23273,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -23314,7 +23285,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -23324,7 +23295,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -23336,7 +23307,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -23453,34 +23424,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -23530,7 +23501,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -23552,10 +23523,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -23580,7 +23551,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -23600,7 +23571,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -23620,7 +23591,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -23640,7 +23611,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -23660,7 +23631,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -23680,7 +23651,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -23700,7 +23671,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -23720,7 +23691,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -23741,7 +23712,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -23762,7 +23733,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -23783,7 +23754,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -23804,7 +23775,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -23825,7 +23796,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -23846,7 +23817,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -23867,7 +23838,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -23888,7 +23859,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -23909,7 +23880,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -24079,7 +24050,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -24100,7 +24071,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -24121,7 +24092,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -24142,7 +24113,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -24163,7 +24134,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -24184,7 +24155,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -24193,7 +24164,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -24205,7 +24176,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -24214,7 +24185,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -24226,7 +24197,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -24235,7 +24206,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -24247,7 +24218,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -24256,7 +24227,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -24268,7 +24239,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -24290,7 +24261,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -24312,7 +24283,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -24322,7 +24293,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -24334,7 +24305,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -24344,7 +24315,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -24356,7 +24327,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -24366,7 +24337,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -24378,7 +24349,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -24388,7 +24359,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -24400,7 +24371,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -24410,7 +24381,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -24422,7 +24393,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -24432,7 +24403,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -24444,7 +24415,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -24454,7 +24425,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -24466,7 +24437,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -24476,7 +24447,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -24488,7 +24459,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -24510,7 +24481,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -24548,7 +24519,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -24570,7 +24541,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -24580,7 +24551,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -24592,7 +24563,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -24602,7 +24573,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -24614,7 +24585,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -24624,7 +24595,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -24636,7 +24607,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -24646,7 +24617,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -24658,7 +24629,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -24668,7 +24639,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -24680,7 +24651,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -24690,7 +24661,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -24702,7 +24673,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -24712,7 +24683,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -24724,7 +24695,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -24734,7 +24705,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -24746,7 +24717,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -24756,7 +24727,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -24768,7 +24739,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -24778,7 +24749,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -24790,7 +24761,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -24800,7 +24771,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -24812,7 +24783,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -24822,7 +24793,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -24834,7 +24805,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -24844,7 +24815,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -24856,7 +24827,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -24866,7 +24837,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -24878,7 +24849,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -24888,7 +24859,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -24900,7 +24871,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -24910,7 +24881,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -24922,7 +24893,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -24932,7 +24903,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -24944,7 +24915,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -24954,7 +24925,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -24966,7 +24937,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -24976,7 +24947,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -24988,7 +24959,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -25102,34 +25073,34 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -25575,32 +25546,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -25875,32 +25846,32 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -26528,34 +26499,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="150" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -27021,36 +26992,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -27599,7 +27570,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>13</v>
@@ -27611,7 +27582,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="29" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -27679,8 +27650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27692,7 +27663,7 @@
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="4.75" customWidth="1"/>
     <col min="8" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -27700,36 +27671,36 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="153"/>
       <c r="D2" s="115" t="s">
         <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -27836,7 +27807,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="87"/>
       <c r="I8" s="149" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -27856,7 +27827,7 @@
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
       <c r="I9" s="149" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -27876,7 +27847,7 @@
       <c r="G10" s="87"/>
       <c r="H10" s="87"/>
       <c r="I10" s="149" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -27896,7 +27867,7 @@
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="149" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -27916,10 +27887,10 @@
       <c r="G12" s="87"/>
       <c r="H12" s="87"/>
       <c r="I12" s="149" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="83">
         <v>8</v>
       </c>
@@ -27936,7 +27907,7 @@
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="149" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -28598,7 +28569,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="145" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D50" s="146"/>
       <c r="E50" s="125"/>
@@ -28606,7 +28577,7 @@
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="126" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28614,7 +28585,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="145" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D51" s="146"/>
       <c r="E51" s="125"/>
@@ -28622,7 +28593,7 @@
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
       <c r="I51" s="126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28630,7 +28601,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="145" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D52" s="146"/>
       <c r="E52" s="125"/>
@@ -28638,7 +28609,7 @@
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
       <c r="I52" s="126" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28646,7 +28617,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="145" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D53" s="146"/>
       <c r="E53" s="125"/>
@@ -28654,7 +28625,7 @@
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
       <c r="I53" s="126" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28662,7 +28633,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="145" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D54" s="146"/>
       <c r="E54" s="125"/>
@@ -28670,7 +28641,7 @@
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
       <c r="I54" s="126" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28678,7 +28649,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="145" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D55" s="146"/>
       <c r="E55" s="125"/>
@@ -28686,7 +28657,7 @@
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
       <c r="I55" s="126" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28694,7 +28665,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="145" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D56" s="146"/>
       <c r="E56" s="125"/>
@@ -28702,7 +28673,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
       <c r="I56" s="126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28730,7 +28701,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="145" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D59" s="146"/>
       <c r="E59" s="125"/>
@@ -28738,7 +28709,7 @@
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
       <c r="I59" s="126" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28746,7 +28717,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="145" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D60" s="146"/>
       <c r="E60" s="125"/>
@@ -28754,7 +28725,7 @@
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
       <c r="I60" s="126" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28762,7 +28733,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D61" s="146"/>
       <c r="E61" s="125"/>
@@ -28770,7 +28741,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
       <c r="I61" s="126" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28778,7 +28749,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D62" s="146"/>
       <c r="E62" s="125"/>
@@ -28786,7 +28757,7 @@
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
       <c r="I62" s="126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28794,7 +28765,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D63" s="146"/>
       <c r="E63" s="125"/>
@@ -28802,7 +28773,7 @@
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
       <c r="I63" s="126" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="64" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28810,7 +28781,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D64" s="146"/>
       <c r="E64" s="125"/>
@@ -28818,7 +28789,7 @@
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
       <c r="I64" s="126" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="65" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -28826,7 +28797,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D65" s="146"/>
       <c r="E65" s="125"/>
@@ -28834,7 +28805,7 @@
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
       <c r="I65" s="126" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="66" spans="2:9" s="124" customFormat="1" x14ac:dyDescent="0.15">
@@ -29974,7 +29945,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30001,34 +29972,34 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="151"/>
+      <c r="B3" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="153"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -30137,7 +30108,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -30157,7 +30128,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="123" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -30177,7 +30148,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -30197,7 +30168,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -30217,7 +30188,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="123" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -6764,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12210,8 +12210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="970" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="844">
   <si>
     <t>EF实体名</t>
   </si>
@@ -1506,15 +1506,6 @@
   </si>
   <si>
     <t>命中期数</t>
-  </si>
-  <si>
-    <t>back1</t>
-  </si>
-  <si>
-    <t>back2</t>
-  </si>
-  <si>
-    <t>back3</t>
   </si>
   <si>
     <t>back4</t>
@@ -3634,10 +3625,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>back0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>为大于20期遗失》20数为3个时，临时用</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3647,6 +3634,26 @@
   </si>
   <si>
     <t xml:space="preserve">值 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C004的中文注释</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C011</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数日期前6位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际出现的值</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5703,7 +5710,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="110"/>
       <c r="C21" s="142" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D21" s="143" t="s">
         <v>58</v>
@@ -5713,7 +5720,7 @@
       <c r="G21" s="145"/>
       <c r="H21" s="145"/>
       <c r="I21" s="52" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -5729,7 +5736,7 @@
       <c r="G22" s="145"/>
       <c r="H22" s="145"/>
       <c r="I22" s="52" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -5745,7 +5752,7 @@
       <c r="G23" s="145"/>
       <c r="H23" s="145"/>
       <c r="I23" s="52" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -5761,7 +5768,7 @@
       <c r="G24" s="145"/>
       <c r="H24" s="145"/>
       <c r="I24" s="52" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -5891,7 +5898,7 @@
       </c>
       <c r="C4" s="159"/>
       <c r="D4" s="160" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
@@ -6031,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="130" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6058,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="130" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -6083,7 +6090,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="130" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -6108,7 +6115,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="137" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6133,7 +6140,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="130" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -6158,7 +6165,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="130" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -6414,7 +6421,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -6764,7 +6771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -10511,7 +10518,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="120" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10555,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -10782,7 +10789,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>58</v>
@@ -10794,7 +10801,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="130" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
@@ -10813,7 +10820,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="130" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
@@ -10834,7 +10841,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="130" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -11033,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="120" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -11063,7 +11070,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>13</v>
@@ -11073,7 +11080,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="120" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11081,7 +11088,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>129</v>
@@ -11093,7 +11100,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="120" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -11101,7 +11108,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>58</v>
@@ -11113,7 +11120,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -11121,7 +11128,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>123</v>
@@ -11133,7 +11140,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="120" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -11141,7 +11148,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>58</v>
@@ -11153,7 +11160,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -11161,7 +11168,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>135</v>
@@ -11173,7 +11180,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="120" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -11181,7 +11188,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>58</v>
@@ -11193,7 +11200,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -11201,7 +11208,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>203</v>
@@ -11213,7 +11220,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="120" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -11221,7 +11228,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="138" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>58</v>
@@ -11233,7 +11240,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -11344,7 +11351,7 @@
       </c>
       <c r="C3" s="155"/>
       <c r="D3" s="121" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E3" s="121" t="s">
         <v>1</v>
@@ -11489,11 +11496,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="130" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="130" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -11516,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="130" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -11538,7 +11545,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="130" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -11560,7 +11567,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="137" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -11582,7 +11589,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="130" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -11624,7 +11631,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="137" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -11666,7 +11673,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="130" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -11674,7 +11681,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="16"/>
       <c r="C18" s="140" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -11692,7 +11699,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="16"/>
       <c r="C19" s="140" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>58</v>
@@ -11704,7 +11711,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="130" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -11942,7 +11949,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="147" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -12210,8 +12217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12322,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -12344,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="120" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -12366,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -12464,7 +12471,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -12475,7 +12482,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
@@ -12489,20 +12496,18 @@
       <c r="B16" s="8">
         <v>10</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>36</v>
+      <c r="C16" s="138" t="s">
+        <v>840</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="27" t="s">
-        <v>481</v>
+      <c r="I16" s="120" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -12521,8 +12526,8 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="27" t="s">
-        <v>482</v>
+      <c r="I17" s="120" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -12533,7 +12538,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="12">
@@ -12541,8 +12546,8 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="27" t="s">
-        <v>483</v>
+      <c r="I18" s="120" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -12562,7 +12567,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -12582,7 +12587,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -12600,7 +12605,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -12618,7 +12623,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -12636,7 +12641,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="27" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -12654,7 +12659,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="27" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -12672,7 +12677,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="27" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -12736,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="161" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
@@ -12748,7 +12753,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -12795,13 +12800,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -12818,7 +12823,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="38" t="s">
@@ -12838,7 +12843,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="38" t="s">
@@ -12858,13 +12863,13 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -12874,7 +12879,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="120"/>
@@ -12884,7 +12889,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="135" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>129</v>
@@ -12892,11 +12897,11 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="120" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -12904,7 +12909,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>131</v>
@@ -12912,11 +12917,11 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="120" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -12924,7 +12929,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="135" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>133</v>
@@ -12932,11 +12937,11 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="120" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -12944,7 +12949,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="135" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>135</v>
@@ -12952,11 +12957,11 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="120" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -12964,7 +12969,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="135" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>137</v>
@@ -12972,17 +12977,17 @@
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="141" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="C15" s="135" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>139</v>
@@ -12990,17 +12995,17 @@
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="141" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="46"/>
       <c r="C16" s="135" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>200</v>
@@ -13008,11 +13013,11 @@
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="141" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
@@ -13020,7 +13025,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="135" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>203</v>
@@ -13028,11 +13033,11 @@
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
       <c r="G17" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="141" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
@@ -13040,7 +13045,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="135" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>204</v>
@@ -13048,11 +13053,11 @@
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="141" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -13061,7 +13066,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>207</v>
@@ -13069,11 +13074,11 @@
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="141" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -13082,7 +13087,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>209</v>
@@ -13090,11 +13095,11 @@
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="141" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -13103,7 +13108,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="135" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>211</v>
@@ -13111,11 +13116,11 @@
       <c r="E21" s="48"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="141" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -13124,7 +13129,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="135" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D22" s="47" t="s">
         <v>213</v>
@@ -13132,11 +13137,11 @@
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="141" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -13145,7 +13150,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="135" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>215</v>
@@ -13153,11 +13158,11 @@
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="141" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -13166,7 +13171,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="135" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>217</v>
@@ -13174,11 +13179,11 @@
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="141" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -13187,7 +13192,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="135" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>219</v>
@@ -13195,11 +13200,11 @@
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="141" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -13208,7 +13213,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>221</v>
@@ -13216,11 +13221,11 @@
       <c r="E26" s="48"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="141" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -13229,7 +13234,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="135" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>223</v>
@@ -13237,11 +13242,11 @@
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
       <c r="G27" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="141" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -13250,7 +13255,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>225</v>
@@ -13258,11 +13263,11 @@
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="141" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -13271,7 +13276,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="135" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>227</v>
@@ -13279,11 +13284,11 @@
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="141" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="N29" s="25"/>
     </row>
@@ -13292,7 +13297,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="135" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>229</v>
@@ -13300,11 +13305,11 @@
       <c r="E30" s="48"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="120" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N30" s="25"/>
     </row>
@@ -13313,7 +13318,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>231</v>
@@ -13321,11 +13326,11 @@
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H31" s="49"/>
       <c r="I31" s="120" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N31" s="25"/>
     </row>
@@ -13334,7 +13339,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="135" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>233</v>
@@ -13342,11 +13347,11 @@
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="120" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -13355,7 +13360,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="135" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>235</v>
@@ -13363,11 +13368,11 @@
       <c r="E33" s="48"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="120" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -13376,7 +13381,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="135" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D34" s="47" t="s">
         <v>237</v>
@@ -13384,11 +13389,11 @@
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="120" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -13397,7 +13402,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="135" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>239</v>
@@ -13405,11 +13410,11 @@
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H35" s="49"/>
       <c r="I35" s="120" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -13418,7 +13423,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="135" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>241</v>
@@ -13426,11 +13431,11 @@
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="120" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -13439,7 +13444,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>370</v>
@@ -13447,11 +13452,11 @@
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H37" s="49"/>
       <c r="I37" s="120" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -13460,7 +13465,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="135" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>372</v>
@@ -13468,11 +13473,11 @@
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
       <c r="G38" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="120" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -13481,7 +13486,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="135" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>402</v>
@@ -13489,11 +13494,11 @@
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="120" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -13502,7 +13507,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="135" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>211</v>
@@ -13510,11 +13515,11 @@
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="141" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -13523,17 +13528,17 @@
         <v>14</v>
       </c>
       <c r="C41" s="135" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="48"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="141" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -13542,7 +13547,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>213</v>
@@ -13550,11 +13555,11 @@
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="141" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N42" s="25"/>
     </row>
@@ -13563,17 +13568,17 @@
         <v>14</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D43" s="47"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="141" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N43" s="25"/>
     </row>
@@ -13582,7 +13587,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="135" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>215</v>
@@ -13590,11 +13595,11 @@
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="141" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N44" s="25"/>
     </row>
@@ -13603,7 +13608,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>217</v>
@@ -13611,11 +13616,11 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H45" s="49"/>
       <c r="I45" s="141" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N45" s="25"/>
     </row>
@@ -13624,7 +13629,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="135" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>219</v>
@@ -13632,11 +13637,11 @@
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H46" s="49"/>
       <c r="I46" s="141" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="N46" s="25"/>
     </row>
@@ -13645,17 +13650,17 @@
         <v>14</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H47" s="49"/>
       <c r="I47" s="141" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="N47" s="25"/>
     </row>
@@ -13664,7 +13669,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="135" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D48" s="47" t="s">
         <v>221</v>
@@ -13672,11 +13677,11 @@
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="141" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="N48" s="25"/>
     </row>
@@ -13685,7 +13690,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>223</v>
@@ -13693,11 +13698,11 @@
       <c r="E49" s="48"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="141" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="N49" s="25"/>
     </row>
@@ -13706,7 +13711,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="135" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D50" s="47" t="s">
         <v>225</v>
@@ -13714,7 +13719,7 @@
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
       <c r="G50" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="50"/>
@@ -13725,7 +13730,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>227</v>
@@ -13733,7 +13738,7 @@
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H51" s="49"/>
       <c r="I51" s="50"/>
@@ -13742,13 +13747,13 @@
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="46"/>
       <c r="C52" s="135" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H52" s="49"/>
       <c r="I52" s="50"/>
@@ -13759,7 +13764,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D53" s="47" t="s">
         <v>229</v>
@@ -13767,7 +13772,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H53" s="49"/>
       <c r="I53" s="50"/>
@@ -13778,7 +13783,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="135" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>219</v>
@@ -13786,7 +13791,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="38"/>
@@ -13797,7 +13802,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="135" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>221</v>
@@ -13805,7 +13810,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="38"/>
@@ -13816,7 +13821,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="135" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>223</v>
@@ -13824,7 +13829,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="38"/>
@@ -13835,7 +13840,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="135" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>225</v>
@@ -13843,7 +13848,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="38"/>
@@ -13854,7 +13859,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>227</v>
@@ -13862,7 +13867,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="38"/>
@@ -13873,7 +13878,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="135" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>229</v>
@@ -13881,7 +13886,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="38"/>
@@ -13892,7 +13897,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="135" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>231</v>
@@ -13900,7 +13905,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="27"/>
@@ -13911,7 +13916,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="135" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>233</v>
@@ -13919,7 +13924,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="27"/>
@@ -13982,7 +13987,7 @@
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
       <c r="I66" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N66" s="25"/>
     </row>
@@ -13999,7 +14004,7 @@
       <c r="G67" s="49"/>
       <c r="H67" s="49"/>
       <c r="I67" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N67" s="25"/>
     </row>
@@ -14016,7 +14021,7 @@
       <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N68" s="25"/>
     </row>
@@ -14033,7 +14038,7 @@
       <c r="G69" s="49"/>
       <c r="H69" s="49"/>
       <c r="I69" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N69" s="25"/>
     </row>
@@ -14042,7 +14047,7 @@
         <v>47</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="48"/>
@@ -14050,14 +14055,14 @@
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
       <c r="I70" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N70" s="25"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="46"/>
       <c r="C71" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
@@ -14065,7 +14070,7 @@
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N71" s="25"/>
     </row>
@@ -14082,7 +14087,7 @@
       <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N72" s="25"/>
     </row>
@@ -14091,7 +14096,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="48"/>
@@ -14099,14 +14104,14 @@
       <c r="G73" s="49"/>
       <c r="H73" s="49"/>
       <c r="I73" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N73" s="25"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="46"/>
       <c r="C74" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="48"/>
@@ -14114,7 +14119,7 @@
       <c r="G74" s="49"/>
       <c r="H74" s="49"/>
       <c r="I74" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N74" s="25"/>
     </row>
@@ -14131,7 +14136,7 @@
       <c r="G75" s="49"/>
       <c r="H75" s="49"/>
       <c r="I75" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N75" s="25"/>
     </row>
@@ -14140,7 +14145,7 @@
         <v>51</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="48"/>
@@ -14148,7 +14153,7 @@
       <c r="G76" s="49"/>
       <c r="H76" s="49"/>
       <c r="I76" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N76" s="25"/>
     </row>
@@ -14157,7 +14162,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="48"/>
@@ -14165,7 +14170,7 @@
       <c r="G77" s="49"/>
       <c r="H77" s="49"/>
       <c r="I77" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N77" s="25"/>
     </row>
@@ -14182,7 +14187,7 @@
       <c r="G78" s="49"/>
       <c r="H78" s="49"/>
       <c r="I78" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N78" s="25"/>
     </row>
@@ -14191,7 +14196,7 @@
         <v>54</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="48"/>
@@ -14199,7 +14204,7 @@
       <c r="G79" s="49"/>
       <c r="H79" s="49"/>
       <c r="I79" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N79" s="25"/>
     </row>
@@ -14208,7 +14213,7 @@
         <v>55</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="48"/>
@@ -14216,7 +14221,7 @@
       <c r="G80" s="49"/>
       <c r="H80" s="49"/>
       <c r="I80" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
@@ -14234,7 +14239,7 @@
       <c r="G81" s="49"/>
       <c r="H81" s="49"/>
       <c r="I81" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
@@ -14244,7 +14249,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="48"/>
@@ -14252,7 +14257,7 @@
       <c r="G82" s="49"/>
       <c r="H82" s="49"/>
       <c r="I82" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
@@ -14263,7 +14268,7 @@
         <v>58</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D83" s="47"/>
       <c r="E83" s="48"/>
@@ -14271,7 +14276,7 @@
       <c r="G83" s="49"/>
       <c r="H83" s="49"/>
       <c r="I83" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
@@ -14289,7 +14294,7 @@
       <c r="G84" s="49"/>
       <c r="H84" s="49"/>
       <c r="I84" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
@@ -14309,7 +14314,7 @@
       <c r="G85" s="49"/>
       <c r="H85" s="49"/>
       <c r="I85" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K85" s="25"/>
       <c r="L85" s="25"/>
@@ -14327,7 +14332,7 @@
       <c r="G86" s="49"/>
       <c r="H86" s="49"/>
       <c r="I86" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
@@ -14345,7 +14350,7 @@
       <c r="G87" s="49"/>
       <c r="H87" s="49"/>
       <c r="I87" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K87" s="25"/>
       <c r="L87" s="25"/>
@@ -14355,7 +14360,7 @@
         <v>63</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="48"/>
@@ -14363,7 +14368,7 @@
       <c r="G88" s="49"/>
       <c r="H88" s="49"/>
       <c r="I88" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
@@ -14373,7 +14378,7 @@
         <v>64</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="48"/>
@@ -14381,7 +14386,7 @@
       <c r="G89" s="49"/>
       <c r="H89" s="49"/>
       <c r="I89" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
@@ -14399,7 +14404,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
@@ -14409,7 +14414,7 @@
         <v>66</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
@@ -14417,7 +14422,7 @@
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L91" s="25"/>
     </row>
@@ -14426,7 +14431,7 @@
         <v>67</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="11"/>
@@ -14434,7 +14439,7 @@
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
@@ -14450,7 +14455,7 @@
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.15">
@@ -14458,7 +14463,7 @@
         <v>69</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="11"/>
@@ -14466,7 +14471,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
@@ -14474,7 +14479,7 @@
         <v>70</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
@@ -14482,7 +14487,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
@@ -14498,7 +14503,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
@@ -14506,7 +14511,7 @@
         <v>72</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
@@ -14514,7 +14519,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
@@ -14522,7 +14527,7 @@
         <v>73</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="11"/>
@@ -14530,7 +14535,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
@@ -15180,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="153" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G3" s="149"/>
       <c r="H3" s="149"/>
@@ -15192,7 +15197,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -15231,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -15245,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -15253,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>58</v>
@@ -15266,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -15274,7 +15279,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>61</v>
@@ -15286,7 +15291,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="120" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -15294,7 +15299,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>13</v>
@@ -15306,7 +15311,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -15314,7 +15319,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>146</v>
@@ -15326,7 +15331,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="120" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -15334,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>13</v>
@@ -15346,7 +15351,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="120" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -15567,7 +15572,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -15616,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>184</v>
@@ -15640,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
@@ -15662,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
@@ -15686,7 +15691,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -15706,7 +15711,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15726,7 +15731,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15746,7 +15751,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15766,7 +15771,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15786,7 +15791,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15806,7 +15811,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15826,7 +15831,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15846,7 +15851,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15866,7 +15871,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15886,7 +15891,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15906,7 +15911,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15926,7 +15931,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15946,7 +15951,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15966,7 +15971,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15986,7 +15991,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="38" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16006,7 +16011,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16026,7 +16031,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="38" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16046,7 +16051,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16066,7 +16071,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="38" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16086,7 +16091,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="38" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16106,7 +16111,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16126,7 +16131,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16146,7 +16151,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="27" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16166,7 +16171,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16186,7 +16191,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16206,7 +16211,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16226,7 +16231,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="38" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16246,7 +16251,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16266,7 +16271,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16286,7 +16291,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16306,7 +16311,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16458,7 +16463,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -17120,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -17203,7 +17208,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -17223,7 +17228,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -17243,7 +17248,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -17263,7 +17268,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -17283,7 +17288,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -17303,7 +17308,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -17323,7 +17328,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -17341,7 +17346,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -17359,7 +17364,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -17377,7 +17382,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -17395,7 +17400,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -17413,7 +17418,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -17431,7 +17436,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -17449,7 +17454,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -17467,7 +17472,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -17485,7 +17490,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -17503,7 +17508,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -17521,7 +17526,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -17539,7 +17544,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -17559,7 +17564,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -17774,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -17786,7 +17791,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -17835,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -17899,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -17927,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -17947,7 +17952,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -17967,7 +17972,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -17987,7 +17992,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -18027,7 +18032,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -18067,7 +18072,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -18107,7 +18112,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -18147,7 +18152,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -18187,7 +18192,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -18227,7 +18232,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -18344,7 +18349,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -18356,7 +18361,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -18412,7 +18417,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -18434,10 +18439,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -18462,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -18482,7 +18487,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -18502,7 +18507,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -18522,7 +18527,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -18542,7 +18547,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -18562,7 +18567,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18582,7 +18587,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -18602,7 +18607,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -18623,7 +18628,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -18644,7 +18649,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -18665,7 +18670,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -18686,7 +18691,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -18707,7 +18712,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -18728,7 +18733,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -18749,7 +18754,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -18770,7 +18775,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -18791,7 +18796,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -18812,7 +18817,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -18833,7 +18838,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -18854,7 +18859,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="27" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -18875,7 +18880,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="27" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -18896,7 +18901,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -18969,7 +18974,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -18990,7 +18995,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -19011,7 +19016,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -19032,7 +19037,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -19053,7 +19058,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -19062,7 +19067,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>231</v>
@@ -19074,7 +19079,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -19083,7 +19088,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>233</v>
@@ -19095,7 +19100,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -19104,7 +19109,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>235</v>
@@ -19116,7 +19121,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -19125,7 +19130,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>237</v>
@@ -19137,7 +19142,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -19159,7 +19164,7 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="27" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -19181,7 +19186,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="27" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -19191,7 +19196,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>370</v>
@@ -19203,7 +19208,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="27" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -19213,7 +19218,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>372</v>
@@ -19225,7 +19230,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="27" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -19235,7 +19240,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>402</v>
@@ -19247,7 +19252,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="27" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -19257,7 +19262,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>405</v>
@@ -19269,7 +19274,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -19279,7 +19284,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>408</v>
@@ -19291,7 +19296,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -19301,7 +19306,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>410</v>
@@ -19313,7 +19318,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -19323,7 +19328,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>412</v>
@@ -19335,7 +19340,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -19345,7 +19350,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>437</v>
@@ -19357,7 +19362,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="27" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -19379,7 +19384,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="27" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -19417,7 +19422,7 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
@@ -19427,7 +19432,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>370</v>
@@ -19439,7 +19444,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -19449,7 +19454,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>372</v>
@@ -19461,7 +19466,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -19471,7 +19476,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>402</v>
@@ -19483,7 +19488,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -19493,7 +19498,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>405</v>
@@ -19505,7 +19510,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -19515,7 +19520,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>408</v>
@@ -19527,7 +19532,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -19537,7 +19542,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>410</v>
@@ -19549,7 +19554,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -19559,7 +19564,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>412</v>
@@ -19571,7 +19576,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -19581,7 +19586,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>437</v>
@@ -19593,7 +19598,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -19603,7 +19608,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>414</v>
@@ -19615,7 +19620,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -19625,7 +19630,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>439</v>
@@ -19637,7 +19642,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -19647,7 +19652,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>416</v>
@@ -19659,7 +19664,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -19669,7 +19674,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>441</v>
@@ -19681,7 +19686,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -19691,7 +19696,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>418</v>
@@ -19703,7 +19708,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -19713,7 +19718,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>443</v>
@@ -19725,7 +19730,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -19735,7 +19740,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>420</v>
@@ -19747,7 +19752,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -19757,7 +19762,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>445</v>
@@ -19769,7 +19774,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -19779,7 +19784,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>422</v>
@@ -19791,7 +19796,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -19801,7 +19806,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>447</v>
@@ -19813,7 +19818,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -19823,7 +19828,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>424</v>
@@ -19835,7 +19840,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -19962,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -19974,7 +19979,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -20030,7 +20035,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -20052,10 +20057,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -20080,7 +20085,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -20100,7 +20105,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -20120,7 +20125,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -20140,7 +20145,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -20160,7 +20165,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -20180,7 +20185,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20200,7 +20205,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -20220,7 +20225,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -20241,7 +20246,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -20262,7 +20267,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -20283,7 +20288,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -20304,7 +20309,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -20325,7 +20330,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -20346,7 +20351,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -20367,7 +20372,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -20388,7 +20393,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -20409,7 +20414,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -20579,7 +20584,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -20600,7 +20605,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -20621,7 +20626,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -20642,7 +20647,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -20663,7 +20668,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -20684,7 +20689,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -20693,7 +20698,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -20705,7 +20710,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -20714,7 +20719,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -20726,7 +20731,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -20735,7 +20740,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -20747,7 +20752,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -20756,7 +20761,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -20768,7 +20773,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -20790,7 +20795,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -20812,7 +20817,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -20822,7 +20827,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -20834,7 +20839,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -20844,7 +20849,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -20856,7 +20861,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -20866,7 +20871,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -20878,7 +20883,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -20888,7 +20893,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -20900,7 +20905,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -20910,7 +20915,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -20922,7 +20927,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -20932,7 +20937,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -20944,7 +20949,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -20954,7 +20959,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -20966,7 +20971,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -20976,7 +20981,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -20988,7 +20993,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -21010,7 +21015,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -21048,7 +21053,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -21070,7 +21075,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -21080,7 +21085,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -21092,7 +21097,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -21102,7 +21107,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -21114,7 +21119,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -21124,7 +21129,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -21136,7 +21141,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -21146,7 +21151,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -21158,7 +21163,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -21168,7 +21173,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -21180,7 +21185,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -21190,7 +21195,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -21202,7 +21207,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -21212,7 +21217,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -21224,7 +21229,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -21234,7 +21239,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -21246,7 +21251,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -21256,7 +21261,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -21268,7 +21273,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -21278,7 +21283,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -21290,7 +21295,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -21300,7 +21305,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -21312,7 +21317,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -21322,7 +21327,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -21334,7 +21339,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -21344,7 +21349,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -21356,7 +21361,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -21366,7 +21371,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -21378,7 +21383,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -21388,7 +21393,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -21400,7 +21405,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -21410,7 +21415,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -21422,7 +21427,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -21432,7 +21437,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -21444,7 +21449,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -21454,7 +21459,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -21466,7 +21471,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -21476,7 +21481,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -21488,7 +21493,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -21614,7 +21619,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -21626,7 +21631,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -21682,7 +21687,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -21704,10 +21709,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -21732,7 +21737,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -21752,7 +21757,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -21772,7 +21777,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -21792,7 +21797,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -21812,7 +21817,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -21832,7 +21837,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -21852,7 +21857,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -21872,7 +21877,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -21893,7 +21898,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -21914,7 +21919,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -21935,7 +21940,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -21956,7 +21961,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -21977,7 +21982,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -21998,7 +22003,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -22019,7 +22024,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -22040,7 +22045,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -22061,7 +22066,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -22231,7 +22236,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -22252,7 +22257,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -22273,7 +22278,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -22294,7 +22299,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -22315,7 +22320,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -22336,7 +22341,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -22345,7 +22350,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -22357,7 +22362,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -22366,7 +22371,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -22378,7 +22383,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -22387,7 +22392,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -22399,7 +22404,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -22408,7 +22413,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -22420,7 +22425,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -22442,7 +22447,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -22464,7 +22469,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -22474,7 +22479,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -22486,7 +22491,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -22496,7 +22501,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -22508,7 +22513,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -22518,7 +22523,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -22530,7 +22535,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -22540,7 +22545,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -22552,7 +22557,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -22562,7 +22567,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -22574,7 +22579,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -22584,7 +22589,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -22596,7 +22601,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -22606,7 +22611,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -22618,7 +22623,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -22628,7 +22633,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -22640,7 +22645,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -22662,7 +22667,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -22700,7 +22705,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -22722,7 +22727,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -22732,7 +22737,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -22744,7 +22749,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -22754,7 +22759,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -22766,7 +22771,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -22776,7 +22781,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -22788,7 +22793,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -22798,7 +22803,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -22810,7 +22815,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -22820,7 +22825,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -22832,7 +22837,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -22842,7 +22847,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -22854,7 +22859,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -22864,7 +22869,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -22876,7 +22881,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -22886,7 +22891,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -22898,7 +22903,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -22908,7 +22913,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -22920,7 +22925,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -22930,7 +22935,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -22942,7 +22947,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -22952,7 +22957,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -22964,7 +22969,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -22974,7 +22979,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -22986,7 +22991,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -22996,7 +23001,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -23008,7 +23013,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -23018,7 +23023,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -23030,7 +23035,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -23040,7 +23045,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -23052,7 +23057,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -23062,7 +23067,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -23074,7 +23079,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -23084,7 +23089,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -23096,7 +23101,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -23106,7 +23111,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -23118,7 +23123,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -23128,7 +23133,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -23140,7 +23145,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -23266,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -23278,7 +23283,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -23334,7 +23339,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -23356,10 +23361,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -23384,7 +23389,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -23404,7 +23409,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -23424,7 +23429,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -23444,7 +23449,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -23464,7 +23469,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -23484,7 +23489,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -23504,7 +23509,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -23524,7 +23529,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -23545,7 +23550,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -23566,7 +23571,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -23587,7 +23592,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -23608,7 +23613,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -23629,7 +23634,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -23650,7 +23655,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -23671,7 +23676,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -23692,7 +23697,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -23713,7 +23718,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -23883,7 +23888,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -23904,7 +23909,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -23925,7 +23930,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -23946,7 +23951,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -23967,7 +23972,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -23988,7 +23993,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -23997,7 +24002,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -24009,7 +24014,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -24018,7 +24023,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -24030,7 +24035,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -24039,7 +24044,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -24051,7 +24056,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -24060,7 +24065,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -24072,7 +24077,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -24094,7 +24099,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -24116,7 +24121,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -24126,7 +24131,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -24138,7 +24143,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -24148,7 +24153,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -24160,7 +24165,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -24170,7 +24175,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -24182,7 +24187,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -24192,7 +24197,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -24204,7 +24209,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -24214,7 +24219,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -24226,7 +24231,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -24236,7 +24241,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -24248,7 +24253,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -24258,7 +24263,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -24270,7 +24275,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -24280,7 +24285,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -24292,7 +24297,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -24314,7 +24319,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -24352,7 +24357,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -24374,7 +24379,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -24384,7 +24389,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -24396,7 +24401,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -24406,7 +24411,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -24418,7 +24423,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -24428,7 +24433,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -24440,7 +24445,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -24450,7 +24455,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -24462,7 +24467,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -24472,7 +24477,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -24484,7 +24489,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -24494,7 +24499,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -24506,7 +24511,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -24516,7 +24521,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -24528,7 +24533,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -24538,7 +24543,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -24550,7 +24555,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -24560,7 +24565,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -24572,7 +24577,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -24582,7 +24587,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -24594,7 +24599,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -24604,7 +24609,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -24616,7 +24621,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -24626,7 +24631,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -24638,7 +24643,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -24648,7 +24653,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -24660,7 +24665,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -24670,7 +24675,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -24682,7 +24687,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -24692,7 +24697,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -24704,7 +24709,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -24714,7 +24719,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -24726,7 +24731,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -24736,7 +24741,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -24748,7 +24753,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -24758,7 +24763,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -24770,7 +24775,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -24780,7 +24785,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -24792,7 +24797,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -24918,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -24930,7 +24935,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -24986,7 +24991,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -25008,10 +25013,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -25036,7 +25041,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -25056,7 +25061,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -25076,7 +25081,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -25096,7 +25101,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -25116,7 +25121,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -25136,7 +25141,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -25156,7 +25161,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -25176,7 +25181,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -25197,7 +25202,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -25218,7 +25223,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -25239,7 +25244,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -25260,7 +25265,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -25281,7 +25286,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -25302,7 +25307,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -25323,7 +25328,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -25344,7 +25349,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -25365,7 +25370,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -25535,7 +25540,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -25556,7 +25561,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -25577,7 +25582,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -25598,7 +25603,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -25619,7 +25624,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -25640,7 +25645,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -25649,7 +25654,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -25661,7 +25666,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -25670,7 +25675,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -25682,7 +25687,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -25691,7 +25696,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -25703,7 +25708,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -25712,7 +25717,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -25724,7 +25729,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -25746,7 +25751,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -25768,7 +25773,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -25778,7 +25783,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -25790,7 +25795,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -25800,7 +25805,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -25812,7 +25817,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -25822,7 +25827,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -25834,7 +25839,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -25844,7 +25849,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -25856,7 +25861,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -25866,7 +25871,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -25878,7 +25883,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -25888,7 +25893,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -25900,7 +25905,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -25910,7 +25915,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -25922,7 +25927,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -25932,7 +25937,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -25944,7 +25949,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -25966,7 +25971,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -26004,7 +26009,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -26026,7 +26031,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -26036,7 +26041,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -26048,7 +26053,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -26058,7 +26063,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -26070,7 +26075,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -26080,7 +26085,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -26092,7 +26097,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -26102,7 +26107,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -26114,7 +26119,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -26124,7 +26129,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -26136,7 +26141,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -26146,7 +26151,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -26158,7 +26163,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -26168,7 +26173,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -26180,7 +26185,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -26190,7 +26195,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -26202,7 +26207,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -26212,7 +26217,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -26224,7 +26229,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -26234,7 +26239,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -26246,7 +26251,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -26256,7 +26261,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -26268,7 +26273,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -26278,7 +26283,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -26290,7 +26295,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -26300,7 +26305,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -26312,7 +26317,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -26322,7 +26327,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -26334,7 +26339,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -26344,7 +26349,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -26356,7 +26361,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -26366,7 +26371,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -26378,7 +26383,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -26388,7 +26393,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -26400,7 +26405,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -26410,7 +26415,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -26422,7 +26427,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -26432,7 +26437,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -26444,7 +26449,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -29055,7 +29060,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>13</v>
@@ -29067,7 +29072,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="29" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -29292,7 +29297,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -29312,7 +29317,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -29332,7 +29337,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="130" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -29352,7 +29357,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="130" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -29372,7 +29377,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="130" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29392,7 +29397,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="130" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -31224,7 +31229,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -31339,7 +31344,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -31359,7 +31364,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="120" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -31379,7 +31384,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="120" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -31399,7 +31404,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="120" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -31419,7 +31424,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="120" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -1490,9 +1490,6 @@
     <t>T_109</t>
   </si>
   <si>
-    <t>T_110</t>
-  </si>
-  <si>
     <t>数字(-2147483648~2147483647)</t>
   </si>
   <si>
@@ -3654,6 +3651,10 @@
   </si>
   <si>
     <t>实际出现的值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_110</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5710,7 +5711,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="110"/>
       <c r="C21" s="142" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D21" s="143" t="s">
         <v>58</v>
@@ -5720,7 +5721,7 @@
       <c r="G21" s="145"/>
       <c r="H21" s="145"/>
       <c r="I21" s="52" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -5736,7 +5737,7 @@
       <c r="G22" s="145"/>
       <c r="H22" s="145"/>
       <c r="I22" s="52" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -5752,7 +5753,7 @@
       <c r="G23" s="145"/>
       <c r="H23" s="145"/>
       <c r="I23" s="52" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -5768,7 +5769,7 @@
       <c r="G24" s="145"/>
       <c r="H24" s="145"/>
       <c r="I24" s="52" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -5898,7 +5899,7 @@
       </c>
       <c r="C4" s="159"/>
       <c r="D4" s="160" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
@@ -6038,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="130" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6065,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="130" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -6090,7 +6091,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="130" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -6115,7 +6116,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="137" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6140,7 +6141,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="130" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -6165,7 +6166,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="130" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -6421,7 +6422,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -10518,7 +10519,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10562,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -10789,7 +10790,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>58</v>
@@ -10801,7 +10802,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="130" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
@@ -10820,7 +10821,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="130" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
@@ -10841,7 +10842,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="130" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -11040,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="120" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -11070,7 +11071,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>13</v>
@@ -11080,7 +11081,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="120" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11088,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>129</v>
@@ -11100,7 +11101,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="120" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -11108,7 +11109,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>58</v>
@@ -11120,7 +11121,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -11128,7 +11129,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>123</v>
@@ -11140,7 +11141,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="120" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -11148,7 +11149,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>58</v>
@@ -11160,7 +11161,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -11168,7 +11169,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>135</v>
@@ -11180,7 +11181,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="120" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -11188,7 +11189,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>58</v>
@@ -11200,7 +11201,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -11208,7 +11209,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>203</v>
@@ -11220,7 +11221,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="120" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -11228,7 +11229,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="138" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>58</v>
@@ -11240,7 +11241,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -11351,7 +11352,7 @@
       </c>
       <c r="C3" s="155"/>
       <c r="D3" s="121" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E3" s="121" t="s">
         <v>1</v>
@@ -11496,11 +11497,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="130" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="130" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -11523,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="130" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -11545,7 +11546,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="130" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -11567,7 +11568,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="137" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -11589,7 +11590,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="130" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -11631,7 +11632,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="137" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -11673,7 +11674,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="130" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -11681,7 +11682,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="16"/>
       <c r="C18" s="140" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -11699,7 +11700,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="16"/>
       <c r="C19" s="140" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>58</v>
@@ -11711,7 +11712,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="130" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -11949,7 +11950,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="147" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -12218,7 +12219,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="D4" sqref="D4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12253,8 +12254,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="152"/>
-      <c r="D4" s="147" t="s">
-        <v>475</v>
+      <c r="D4" s="153" t="s">
+        <v>843</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -12296,7 +12297,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7">
@@ -12329,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -12351,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="120" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -12373,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -12393,7 +12394,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -12413,7 +12414,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -12433,7 +12434,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -12453,7 +12454,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -12471,7 +12472,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -12489,7 +12490,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -12497,7 +12498,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>64</v>
@@ -12507,7 +12508,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="120" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -12527,7 +12528,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="120" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -12547,7 +12548,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="120" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -12567,7 +12568,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -12587,7 +12588,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -12605,7 +12606,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -12623,7 +12624,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -12641,7 +12642,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -12659,7 +12660,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -12677,7 +12678,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -12741,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="161" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
@@ -12753,7 +12754,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -12800,13 +12801,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -12823,7 +12824,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="38" t="s">
@@ -12843,7 +12844,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="38" t="s">
@@ -12863,13 +12864,13 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -12879,7 +12880,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="120"/>
@@ -12889,7 +12890,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="135" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>129</v>
@@ -12897,11 +12898,11 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -12909,7 +12910,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>131</v>
@@ -12917,11 +12918,11 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="120" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -12929,7 +12930,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="135" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>133</v>
@@ -12937,11 +12938,11 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="120" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -12949,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="135" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>135</v>
@@ -12957,11 +12958,11 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="120" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -12969,7 +12970,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="135" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>137</v>
@@ -12977,17 +12978,17 @@
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="141" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="C15" s="135" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>139</v>
@@ -12995,17 +12996,17 @@
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="141" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="46"/>
       <c r="C16" s="135" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>200</v>
@@ -13013,11 +13014,11 @@
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="141" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
@@ -13025,7 +13026,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="135" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>203</v>
@@ -13033,11 +13034,11 @@
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
       <c r="G17" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="141" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
@@ -13045,7 +13046,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="135" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>204</v>
@@ -13053,11 +13054,11 @@
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="141" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -13066,7 +13067,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>207</v>
@@ -13074,11 +13075,11 @@
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="141" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -13087,7 +13088,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>209</v>
@@ -13095,11 +13096,11 @@
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="141" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -13108,7 +13109,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="135" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>211</v>
@@ -13116,11 +13117,11 @@
       <c r="E21" s="48"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="141" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -13129,7 +13130,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="135" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D22" s="47" t="s">
         <v>213</v>
@@ -13137,11 +13138,11 @@
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="141" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -13150,7 +13151,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="135" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>215</v>
@@ -13158,11 +13159,11 @@
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="141" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -13171,7 +13172,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="135" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>217</v>
@@ -13179,11 +13180,11 @@
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="141" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -13192,7 +13193,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="135" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>219</v>
@@ -13200,11 +13201,11 @@
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="141" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -13213,7 +13214,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>221</v>
@@ -13221,11 +13222,11 @@
       <c r="E26" s="48"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="141" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -13234,7 +13235,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="135" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>223</v>
@@ -13242,11 +13243,11 @@
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
       <c r="G27" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="141" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -13255,7 +13256,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>225</v>
@@ -13263,11 +13264,11 @@
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="141" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -13276,7 +13277,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="135" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>227</v>
@@ -13284,11 +13285,11 @@
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="141" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N29" s="25"/>
     </row>
@@ -13297,7 +13298,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="135" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>229</v>
@@ -13305,11 +13306,11 @@
       <c r="E30" s="48"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="120" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N30" s="25"/>
     </row>
@@ -13318,7 +13319,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>231</v>
@@ -13326,11 +13327,11 @@
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H31" s="49"/>
       <c r="I31" s="120" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N31" s="25"/>
     </row>
@@ -13339,7 +13340,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="135" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>233</v>
@@ -13347,11 +13348,11 @@
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="120" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -13360,7 +13361,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="135" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>235</v>
@@ -13368,11 +13369,11 @@
       <c r="E33" s="48"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="120" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -13381,7 +13382,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="135" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D34" s="47" t="s">
         <v>237</v>
@@ -13389,11 +13390,11 @@
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="120" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -13402,7 +13403,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="135" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>239</v>
@@ -13410,11 +13411,11 @@
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H35" s="49"/>
       <c r="I35" s="120" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -13423,7 +13424,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="135" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>241</v>
@@ -13431,11 +13432,11 @@
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="120" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -13444,7 +13445,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>370</v>
@@ -13452,11 +13453,11 @@
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H37" s="49"/>
       <c r="I37" s="120" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -13465,7 +13466,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="135" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>372</v>
@@ -13473,11 +13474,11 @@
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
       <c r="G38" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -13486,7 +13487,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="135" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>402</v>
@@ -13494,11 +13495,11 @@
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="120" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -13507,7 +13508,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="135" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>211</v>
@@ -13515,11 +13516,11 @@
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -13528,17 +13529,17 @@
         <v>14</v>
       </c>
       <c r="C41" s="135" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="48"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="141" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -13547,7 +13548,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>213</v>
@@ -13555,11 +13556,11 @@
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="141" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N42" s="25"/>
     </row>
@@ -13568,17 +13569,17 @@
         <v>14</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D43" s="47"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="141" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N43" s="25"/>
     </row>
@@ -13587,7 +13588,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="135" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>215</v>
@@ -13595,11 +13596,11 @@
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N44" s="25"/>
     </row>
@@ -13608,7 +13609,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>217</v>
@@ -13616,11 +13617,11 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H45" s="49"/>
       <c r="I45" s="141" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N45" s="25"/>
     </row>
@@ -13629,7 +13630,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="135" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>219</v>
@@ -13637,11 +13638,11 @@
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H46" s="49"/>
       <c r="I46" s="141" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N46" s="25"/>
     </row>
@@ -13650,17 +13651,17 @@
         <v>14</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H47" s="49"/>
       <c r="I47" s="141" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N47" s="25"/>
     </row>
@@ -13669,7 +13670,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="135" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D48" s="47" t="s">
         <v>221</v>
@@ -13677,11 +13678,11 @@
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="141" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N48" s="25"/>
     </row>
@@ -13690,7 +13691,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>223</v>
@@ -13698,11 +13699,11 @@
       <c r="E49" s="48"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="141" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N49" s="25"/>
     </row>
@@ -13711,7 +13712,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="135" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D50" s="47" t="s">
         <v>225</v>
@@ -13719,7 +13720,7 @@
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
       <c r="G50" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="50"/>
@@ -13730,7 +13731,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>227</v>
@@ -13738,7 +13739,7 @@
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H51" s="49"/>
       <c r="I51" s="50"/>
@@ -13747,13 +13748,13 @@
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="46"/>
       <c r="C52" s="135" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H52" s="49"/>
       <c r="I52" s="50"/>
@@ -13764,7 +13765,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D53" s="47" t="s">
         <v>229</v>
@@ -13772,7 +13773,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H53" s="49"/>
       <c r="I53" s="50"/>
@@ -13783,7 +13784,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="135" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>219</v>
@@ -13791,7 +13792,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="38"/>
@@ -13802,7 +13803,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="135" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>221</v>
@@ -13810,7 +13811,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="38"/>
@@ -13821,7 +13822,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="135" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>223</v>
@@ -13829,7 +13830,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="38"/>
@@ -13840,7 +13841,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="135" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>225</v>
@@ -13848,7 +13849,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="38"/>
@@ -13859,7 +13860,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>227</v>
@@ -13867,7 +13868,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="38"/>
@@ -13878,7 +13879,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="135" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>229</v>
@@ -13886,7 +13887,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="38"/>
@@ -13897,7 +13898,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="135" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>231</v>
@@ -13905,7 +13906,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="27"/>
@@ -13916,7 +13917,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="135" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>233</v>
@@ -13924,7 +13925,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="27"/>
@@ -13987,7 +13988,7 @@
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
       <c r="I66" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N66" s="25"/>
     </row>
@@ -14004,7 +14005,7 @@
       <c r="G67" s="49"/>
       <c r="H67" s="49"/>
       <c r="I67" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N67" s="25"/>
     </row>
@@ -14021,7 +14022,7 @@
       <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N68" s="25"/>
     </row>
@@ -14038,7 +14039,7 @@
       <c r="G69" s="49"/>
       <c r="H69" s="49"/>
       <c r="I69" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N69" s="25"/>
     </row>
@@ -14047,7 +14048,7 @@
         <v>47</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="48"/>
@@ -14055,14 +14056,14 @@
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
       <c r="I70" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N70" s="25"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="46"/>
       <c r="C71" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
@@ -14070,7 +14071,7 @@
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N71" s="25"/>
     </row>
@@ -14087,7 +14088,7 @@
       <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N72" s="25"/>
     </row>
@@ -14096,7 +14097,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="48"/>
@@ -14104,14 +14105,14 @@
       <c r="G73" s="49"/>
       <c r="H73" s="49"/>
       <c r="I73" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N73" s="25"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="46"/>
       <c r="C74" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="48"/>
@@ -14119,7 +14120,7 @@
       <c r="G74" s="49"/>
       <c r="H74" s="49"/>
       <c r="I74" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N74" s="25"/>
     </row>
@@ -14136,7 +14137,7 @@
       <c r="G75" s="49"/>
       <c r="H75" s="49"/>
       <c r="I75" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N75" s="25"/>
     </row>
@@ -14145,7 +14146,7 @@
         <v>51</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="48"/>
@@ -14153,7 +14154,7 @@
       <c r="G76" s="49"/>
       <c r="H76" s="49"/>
       <c r="I76" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N76" s="25"/>
     </row>
@@ -14162,7 +14163,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="48"/>
@@ -14170,7 +14171,7 @@
       <c r="G77" s="49"/>
       <c r="H77" s="49"/>
       <c r="I77" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N77" s="25"/>
     </row>
@@ -14187,7 +14188,7 @@
       <c r="G78" s="49"/>
       <c r="H78" s="49"/>
       <c r="I78" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N78" s="25"/>
     </row>
@@ -14196,7 +14197,7 @@
         <v>54</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="48"/>
@@ -14204,7 +14205,7 @@
       <c r="G79" s="49"/>
       <c r="H79" s="49"/>
       <c r="I79" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N79" s="25"/>
     </row>
@@ -14213,7 +14214,7 @@
         <v>55</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="48"/>
@@ -14221,7 +14222,7 @@
       <c r="G80" s="49"/>
       <c r="H80" s="49"/>
       <c r="I80" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
@@ -14239,7 +14240,7 @@
       <c r="G81" s="49"/>
       <c r="H81" s="49"/>
       <c r="I81" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
@@ -14249,7 +14250,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="48"/>
@@ -14257,7 +14258,7 @@
       <c r="G82" s="49"/>
       <c r="H82" s="49"/>
       <c r="I82" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
@@ -14268,7 +14269,7 @@
         <v>58</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D83" s="47"/>
       <c r="E83" s="48"/>
@@ -14276,7 +14277,7 @@
       <c r="G83" s="49"/>
       <c r="H83" s="49"/>
       <c r="I83" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
@@ -14294,7 +14295,7 @@
       <c r="G84" s="49"/>
       <c r="H84" s="49"/>
       <c r="I84" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
@@ -14314,7 +14315,7 @@
       <c r="G85" s="49"/>
       <c r="H85" s="49"/>
       <c r="I85" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K85" s="25"/>
       <c r="L85" s="25"/>
@@ -14332,7 +14333,7 @@
       <c r="G86" s="49"/>
       <c r="H86" s="49"/>
       <c r="I86" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
@@ -14350,7 +14351,7 @@
       <c r="G87" s="49"/>
       <c r="H87" s="49"/>
       <c r="I87" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K87" s="25"/>
       <c r="L87" s="25"/>
@@ -14360,7 +14361,7 @@
         <v>63</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="48"/>
@@ -14368,7 +14369,7 @@
       <c r="G88" s="49"/>
       <c r="H88" s="49"/>
       <c r="I88" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
@@ -14378,7 +14379,7 @@
         <v>64</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="48"/>
@@ -14386,7 +14387,7 @@
       <c r="G89" s="49"/>
       <c r="H89" s="49"/>
       <c r="I89" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
@@ -14404,7 +14405,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
@@ -14414,7 +14415,7 @@
         <v>66</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
@@ -14422,7 +14423,7 @@
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L91" s="25"/>
     </row>
@@ -14431,7 +14432,7 @@
         <v>67</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="11"/>
@@ -14439,7 +14440,7 @@
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
@@ -14455,7 +14456,7 @@
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.15">
@@ -14463,7 +14464,7 @@
         <v>69</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="11"/>
@@ -14471,7 +14472,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
@@ -14479,7 +14480,7 @@
         <v>70</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
@@ -14487,7 +14488,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
@@ -14503,7 +14504,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
@@ -14511,7 +14512,7 @@
         <v>72</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
@@ -14519,7 +14520,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
@@ -14527,7 +14528,7 @@
         <v>73</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="11"/>
@@ -14535,7 +14536,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
@@ -15185,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="153" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G3" s="149"/>
       <c r="H3" s="149"/>
@@ -15197,7 +15198,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -15236,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -15250,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -15258,7 +15259,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>58</v>
@@ -15271,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -15279,7 +15280,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>61</v>
@@ -15291,7 +15292,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="120" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -15299,7 +15300,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>13</v>
@@ -15311,7 +15312,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -15319,7 +15320,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>146</v>
@@ -15331,7 +15332,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="120" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -15339,7 +15340,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>13</v>
@@ -15351,7 +15352,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -15572,7 +15573,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -15621,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>184</v>
@@ -15645,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
@@ -15667,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
@@ -15691,7 +15692,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -15711,7 +15712,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15731,7 +15732,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15751,7 +15752,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15771,7 +15772,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15791,7 +15792,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15811,7 +15812,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15831,7 +15832,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15851,7 +15852,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15871,7 +15872,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15891,7 +15892,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15911,7 +15912,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15931,7 +15932,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15951,7 +15952,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15971,7 +15972,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15991,7 +15992,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16011,7 +16012,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16031,7 +16032,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16051,7 +16052,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16071,7 +16072,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16091,7 +16092,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16111,7 +16112,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16131,7 +16132,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16151,7 +16152,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16171,7 +16172,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16191,7 +16192,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16211,7 +16212,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16231,7 +16232,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16251,7 +16252,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16271,7 +16272,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16291,7 +16292,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16311,7 +16312,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -16463,7 +16464,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -17125,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -17208,7 +17209,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -17228,7 +17229,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -17248,7 +17249,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -17268,7 +17269,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -17288,7 +17289,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -17308,7 +17309,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -17328,7 +17329,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -17346,7 +17347,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -17364,7 +17365,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -17382,7 +17383,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -17400,7 +17401,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -17418,7 +17419,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -17436,7 +17437,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -17454,7 +17455,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -17472,7 +17473,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -17490,7 +17491,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -17508,7 +17509,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -17526,7 +17527,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -17544,7 +17545,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -17564,7 +17565,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -17779,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -17791,7 +17792,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -17840,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -17904,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -17932,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -17952,7 +17953,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -17972,7 +17973,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -17992,7 +17993,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -18032,7 +18033,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -18072,7 +18073,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -18112,7 +18113,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -18152,7 +18153,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -18192,7 +18193,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -18232,7 +18233,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -18349,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -18361,7 +18362,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -18417,7 +18418,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -18439,10 +18440,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -18467,7 +18468,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -18487,7 +18488,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -18507,7 +18508,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -18527,7 +18528,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -18547,7 +18548,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -18567,7 +18568,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18587,7 +18588,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -18607,7 +18608,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -18628,7 +18629,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -18649,7 +18650,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -18670,7 +18671,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -18691,7 +18692,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -18712,7 +18713,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -18733,7 +18734,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -18754,7 +18755,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -18775,7 +18776,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -18796,7 +18797,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -18817,7 +18818,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -18838,7 +18839,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -18859,7 +18860,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -18880,7 +18881,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -18901,7 +18902,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -18974,7 +18975,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -18995,7 +18996,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -19016,7 +19017,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -19037,7 +19038,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -19058,7 +19059,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -19067,7 +19068,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>231</v>
@@ -19079,7 +19080,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -19088,7 +19089,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>233</v>
@@ -19100,7 +19101,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -19109,7 +19110,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>235</v>
@@ -19121,7 +19122,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -19130,7 +19131,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>237</v>
@@ -19142,7 +19143,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -19164,7 +19165,7 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -19186,7 +19187,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -19196,7 +19197,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>370</v>
@@ -19208,7 +19209,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -19218,7 +19219,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>372</v>
@@ -19230,7 +19231,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -19240,7 +19241,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>402</v>
@@ -19252,7 +19253,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -19262,7 +19263,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>405</v>
@@ -19274,7 +19275,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -19284,7 +19285,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>408</v>
@@ -19296,7 +19297,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -19306,7 +19307,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>410</v>
@@ -19318,7 +19319,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -19328,7 +19329,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>412</v>
@@ -19340,7 +19341,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -19350,7 +19351,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>437</v>
@@ -19362,7 +19363,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -19384,7 +19385,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -19422,7 +19423,7 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
@@ -19432,7 +19433,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>370</v>
@@ -19444,7 +19445,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -19454,7 +19455,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>372</v>
@@ -19466,7 +19467,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -19476,7 +19477,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>402</v>
@@ -19488,7 +19489,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -19498,7 +19499,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>405</v>
@@ -19510,7 +19511,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -19520,7 +19521,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>408</v>
@@ -19532,7 +19533,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -19542,7 +19543,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>410</v>
@@ -19554,7 +19555,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -19564,7 +19565,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>412</v>
@@ -19576,7 +19577,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -19586,7 +19587,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>437</v>
@@ -19598,7 +19599,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -19608,7 +19609,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>414</v>
@@ -19620,7 +19621,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -19630,7 +19631,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>439</v>
@@ -19642,7 +19643,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -19652,7 +19653,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>416</v>
@@ -19664,7 +19665,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -19674,7 +19675,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>441</v>
@@ -19686,7 +19687,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -19696,7 +19697,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>418</v>
@@ -19708,7 +19709,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -19718,7 +19719,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>443</v>
@@ -19730,7 +19731,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -19740,7 +19741,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>420</v>
@@ -19752,7 +19753,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -19762,7 +19763,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>445</v>
@@ -19774,7 +19775,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -19784,7 +19785,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>422</v>
@@ -19796,7 +19797,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -19806,7 +19807,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>447</v>
@@ -19818,7 +19819,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -19828,7 +19829,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>424</v>
@@ -19840,7 +19841,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -19967,7 +19968,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -19979,7 +19980,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -20035,7 +20036,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -20057,10 +20058,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -20085,7 +20086,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -20105,7 +20106,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -20125,7 +20126,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -20145,7 +20146,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -20165,7 +20166,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -20185,7 +20186,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20205,7 +20206,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -20225,7 +20226,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -20246,7 +20247,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -20267,7 +20268,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -20288,7 +20289,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -20309,7 +20310,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -20330,7 +20331,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -20351,7 +20352,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -20372,7 +20373,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -20393,7 +20394,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -20414,7 +20415,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -20584,7 +20585,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -20605,7 +20606,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -20626,7 +20627,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -20647,7 +20648,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -20668,7 +20669,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -20689,7 +20690,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -20698,7 +20699,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -20710,7 +20711,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -20719,7 +20720,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -20731,7 +20732,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -20740,7 +20741,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -20752,7 +20753,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -20761,7 +20762,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -20773,7 +20774,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -20795,7 +20796,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -20817,7 +20818,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -20827,7 +20828,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -20839,7 +20840,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -20849,7 +20850,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -20861,7 +20862,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -20871,7 +20872,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -20883,7 +20884,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -20893,7 +20894,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -20905,7 +20906,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -20915,7 +20916,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -20927,7 +20928,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -20937,7 +20938,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -20949,7 +20950,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -20959,7 +20960,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -20971,7 +20972,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -20981,7 +20982,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -20993,7 +20994,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -21015,7 +21016,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -21053,7 +21054,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -21075,7 +21076,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -21085,7 +21086,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -21097,7 +21098,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -21107,7 +21108,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -21119,7 +21120,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -21129,7 +21130,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -21141,7 +21142,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -21151,7 +21152,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -21163,7 +21164,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -21173,7 +21174,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -21185,7 +21186,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -21195,7 +21196,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -21207,7 +21208,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -21217,7 +21218,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -21229,7 +21230,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -21239,7 +21240,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -21251,7 +21252,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -21261,7 +21262,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -21273,7 +21274,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -21283,7 +21284,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -21295,7 +21296,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -21305,7 +21306,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -21317,7 +21318,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -21327,7 +21328,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -21339,7 +21340,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -21349,7 +21350,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -21361,7 +21362,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -21371,7 +21372,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -21383,7 +21384,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -21393,7 +21394,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -21405,7 +21406,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -21415,7 +21416,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -21427,7 +21428,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -21437,7 +21438,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -21449,7 +21450,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -21459,7 +21460,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -21471,7 +21472,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -21481,7 +21482,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -21493,7 +21494,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -21619,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -21631,7 +21632,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -21687,7 +21688,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -21709,10 +21710,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -21737,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -21757,7 +21758,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -21777,7 +21778,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -21797,7 +21798,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -21817,7 +21818,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -21837,7 +21838,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -21857,7 +21858,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -21877,7 +21878,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -21898,7 +21899,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -21919,7 +21920,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -21940,7 +21941,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -21961,7 +21962,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -21982,7 +21983,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -22003,7 +22004,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -22024,7 +22025,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -22045,7 +22046,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -22066,7 +22067,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -22236,7 +22237,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -22257,7 +22258,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -22278,7 +22279,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -22299,7 +22300,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -22320,7 +22321,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -22341,7 +22342,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -22350,7 +22351,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -22362,7 +22363,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -22371,7 +22372,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -22383,7 +22384,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -22392,7 +22393,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -22404,7 +22405,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -22413,7 +22414,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -22425,7 +22426,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -22447,7 +22448,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -22469,7 +22470,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -22479,7 +22480,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -22491,7 +22492,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -22501,7 +22502,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -22513,7 +22514,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -22523,7 +22524,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -22535,7 +22536,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -22545,7 +22546,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -22557,7 +22558,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -22567,7 +22568,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -22579,7 +22580,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -22589,7 +22590,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -22601,7 +22602,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -22611,7 +22612,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -22623,7 +22624,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -22633,7 +22634,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -22645,7 +22646,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -22667,7 +22668,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -22705,7 +22706,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -22727,7 +22728,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -22737,7 +22738,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -22749,7 +22750,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -22759,7 +22760,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -22771,7 +22772,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -22781,7 +22782,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -22793,7 +22794,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -22803,7 +22804,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -22815,7 +22816,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -22825,7 +22826,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -22837,7 +22838,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -22847,7 +22848,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -22859,7 +22860,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -22869,7 +22870,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -22881,7 +22882,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -22891,7 +22892,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -22903,7 +22904,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -22913,7 +22914,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -22925,7 +22926,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -22935,7 +22936,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -22947,7 +22948,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -22957,7 +22958,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -22969,7 +22970,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -22979,7 +22980,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -22991,7 +22992,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -23001,7 +23002,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -23013,7 +23014,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -23023,7 +23024,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -23035,7 +23036,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -23045,7 +23046,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -23057,7 +23058,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -23067,7 +23068,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -23079,7 +23080,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -23089,7 +23090,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -23101,7 +23102,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -23111,7 +23112,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -23123,7 +23124,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -23133,7 +23134,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -23145,7 +23146,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -23271,7 +23272,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -23283,7 +23284,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -23339,7 +23340,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -23361,10 +23362,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -23389,7 +23390,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -23409,7 +23410,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -23429,7 +23430,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -23449,7 +23450,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -23469,7 +23470,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -23489,7 +23490,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -23509,7 +23510,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -23529,7 +23530,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -23550,7 +23551,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -23571,7 +23572,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -23592,7 +23593,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -23613,7 +23614,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -23634,7 +23635,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -23655,7 +23656,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -23676,7 +23677,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -23697,7 +23698,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -23718,7 +23719,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -23888,7 +23889,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -23909,7 +23910,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -23930,7 +23931,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -23951,7 +23952,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -23972,7 +23973,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -23993,7 +23994,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -24002,7 +24003,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -24014,7 +24015,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -24023,7 +24024,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -24035,7 +24036,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -24044,7 +24045,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -24056,7 +24057,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -24065,7 +24066,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -24077,7 +24078,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -24099,7 +24100,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -24121,7 +24122,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -24131,7 +24132,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -24143,7 +24144,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -24153,7 +24154,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -24165,7 +24166,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -24175,7 +24176,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -24187,7 +24188,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -24197,7 +24198,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -24209,7 +24210,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -24219,7 +24220,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -24231,7 +24232,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -24241,7 +24242,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -24253,7 +24254,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -24263,7 +24264,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -24275,7 +24276,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -24285,7 +24286,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -24297,7 +24298,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -24319,7 +24320,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -24357,7 +24358,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -24379,7 +24380,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -24389,7 +24390,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -24401,7 +24402,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -24411,7 +24412,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -24423,7 +24424,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -24433,7 +24434,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -24445,7 +24446,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -24455,7 +24456,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -24467,7 +24468,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -24477,7 +24478,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -24489,7 +24490,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -24499,7 +24500,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -24511,7 +24512,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -24521,7 +24522,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -24533,7 +24534,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -24543,7 +24544,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -24555,7 +24556,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -24565,7 +24566,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -24577,7 +24578,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -24587,7 +24588,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -24599,7 +24600,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -24609,7 +24610,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -24621,7 +24622,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -24631,7 +24632,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -24643,7 +24644,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -24653,7 +24654,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -24665,7 +24666,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -24675,7 +24676,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -24687,7 +24688,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -24697,7 +24698,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -24709,7 +24710,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -24719,7 +24720,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -24731,7 +24732,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -24741,7 +24742,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -24753,7 +24754,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -24763,7 +24764,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -24775,7 +24776,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -24785,7 +24786,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -24797,7 +24798,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -24923,7 +24924,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G2" s="149"/>
       <c r="H2" s="149"/>
@@ -24935,7 +24936,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -24991,7 +24992,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
@@ -25013,10 +25014,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K6">
         <v>20190101120</v>
@@ -25041,7 +25042,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
@@ -25061,7 +25062,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -25081,7 +25082,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -25101,7 +25102,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -25121,7 +25122,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -25141,7 +25142,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -25161,7 +25162,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -25181,7 +25182,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N14" s="25"/>
     </row>
@@ -25202,7 +25203,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N15" s="25"/>
     </row>
@@ -25223,7 +25224,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N16" s="25"/>
     </row>
@@ -25244,7 +25245,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -25265,7 +25266,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -25286,7 +25287,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -25307,7 +25308,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -25328,7 +25329,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -25349,7 +25350,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -25370,7 +25371,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -25540,7 +25541,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N33" s="25"/>
     </row>
@@ -25561,7 +25562,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N34" s="25"/>
     </row>
@@ -25582,7 +25583,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N35" s="25"/>
     </row>
@@ -25603,7 +25604,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N36" s="25"/>
     </row>
@@ -25624,7 +25625,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N37" s="25"/>
     </row>
@@ -25645,7 +25646,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="25"/>
     </row>
@@ -25654,7 +25655,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>231</v>
@@ -25666,7 +25667,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N39" s="25"/>
     </row>
@@ -25675,7 +25676,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>233</v>
@@ -25687,7 +25688,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N40" s="25"/>
     </row>
@@ -25696,7 +25697,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>235</v>
@@ -25708,7 +25709,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N41" s="25"/>
     </row>
@@ -25717,7 +25718,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>237</v>
@@ -25729,7 +25730,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -25751,7 +25752,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -25773,7 +25774,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
@@ -25783,7 +25784,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>370</v>
@@ -25795,7 +25796,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -25805,7 +25806,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>372</v>
@@ -25817,7 +25818,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
@@ -25827,7 +25828,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>402</v>
@@ -25839,7 +25840,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -25849,7 +25850,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>405</v>
@@ -25861,7 +25862,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
@@ -25871,7 +25872,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>408</v>
@@ -25883,7 +25884,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -25893,7 +25894,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>410</v>
@@ -25905,7 +25906,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
@@ -25915,7 +25916,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>412</v>
@@ -25927,7 +25928,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -25937,7 +25938,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>437</v>
@@ -25949,7 +25950,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -25971,7 +25972,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -26009,7 +26010,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -26031,7 +26032,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
@@ -26041,7 +26042,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>370</v>
@@ -26053,7 +26054,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -26063,7 +26064,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>372</v>
@@ -26075,7 +26076,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
@@ -26085,7 +26086,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>402</v>
@@ -26097,7 +26098,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -26107,7 +26108,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>405</v>
@@ -26119,7 +26120,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -26129,7 +26130,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>408</v>
@@ -26141,7 +26142,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -26151,7 +26152,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>410</v>
@@ -26163,7 +26164,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -26173,7 +26174,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>412</v>
@@ -26185,7 +26186,7 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -26195,7 +26196,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>437</v>
@@ -26207,7 +26208,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
@@ -26217,7 +26218,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>414</v>
@@ -26229,7 +26230,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -26239,7 +26240,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>439</v>
@@ -26251,7 +26252,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
@@ -26261,7 +26262,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>416</v>
@@ -26273,7 +26274,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -26283,7 +26284,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>441</v>
@@ -26295,7 +26296,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
@@ -26305,7 +26306,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>418</v>
@@ -26317,7 +26318,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -26327,7 +26328,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>443</v>
@@ -26339,7 +26340,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
@@ -26349,7 +26350,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>420</v>
@@ -26361,7 +26362,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
@@ -26371,7 +26372,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>445</v>
@@ -26383,7 +26384,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
@@ -26393,7 +26394,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>422</v>
@@ -26405,7 +26406,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
@@ -26415,7 +26416,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>447</v>
@@ -26427,7 +26428,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
@@ -26437,7 +26438,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>424</v>
@@ -26449,7 +26450,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
@@ -29060,7 +29061,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>13</v>
@@ -29072,7 +29073,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -29297,7 +29298,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="130" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -29317,7 +29318,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="130" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -29337,7 +29338,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="130" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -29357,7 +29358,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="130" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -29377,7 +29378,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="130" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29397,7 +29398,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="130" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -31229,7 +31230,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="153" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
@@ -31344,7 +31345,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -31364,7 +31365,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -31384,7 +31385,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="120" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -31404,7 +31405,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="120" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -31424,7 +31425,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="120" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4155" tabRatio="970" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4155" tabRatio="970" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -5362,7 +5362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -33940,7 +33940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Wendang/SSC库表设计.xlsx
+++ b/Wendang/SSC库表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4155" tabRatio="970" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4155" tabRatio="970" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="模板表" sheetId="50" r:id="rId1"/>
@@ -5796,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8943,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
